--- a/REGULAR/OJT/TANEDO, MARIA EVELYN.xlsx
+++ b/REGULAR/OJT/TANEDO, MARIA EVELYN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1805DA-70E8-478E-8957-0C9D38A65905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="400">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1240,7 +1239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1954,7 +1953,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1997,7 +1996,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2060,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,7 +2120,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2186,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2249,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,7 +2347,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,7 +2406,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2471,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2514,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2590,7 +2589,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2776,7 +2775,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2842,7 +2841,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2900,7 +2899,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2966,7 +2965,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3022,7 +3021,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3097,7 +3096,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3140,7 +3139,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3206,7 +3205,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3262,7 +3261,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3341,7 +3340,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3358,26 +3357,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K661" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K661" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K662" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K662"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3684,7 +3683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3694,7 +3693,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3702,34 +3701,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K661"/>
+  <dimension ref="A2:K662"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A118" activePane="bottomLeft"/>
-      <selection activeCell="C2" sqref="C2"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+      <pane ySplit="3690" topLeftCell="A565" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="K575" sqref="K575"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3752,7 +3751,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3772,7 +3771,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3794,7 +3793,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3802,7 +3801,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3815,7 +3814,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3832,7 +3831,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3867,7 +3866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3886,12 +3885,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>43.324999999999989</v>
+        <v>41.324999999999989</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>68</v>
       </c>
@@ -3909,7 +3908,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>36357</v>
       </c>
@@ -3929,7 +3928,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>36373</v>
       </c>
@@ -3949,7 +3948,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>36404</v>
@@ -3970,7 +3969,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A16" si="0">EDATE(A13,1)</f>
         <v>36434</v>
@@ -3991,7 +3990,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>36465</v>
@@ -4016,7 +4015,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>36495</v>
@@ -4037,7 +4036,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>70</v>
       </c>
@@ -4055,7 +4054,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f>EDATE(A16,1)</f>
         <v>36526</v>
@@ -4076,7 +4075,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f>EDATE(A18,1)</f>
         <v>36557</v>
@@ -4103,7 +4102,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>55</v>
@@ -4125,7 +4124,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>71</v>
@@ -4145,7 +4144,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f>EDATE(A19,1)</f>
         <v>36586</v>
@@ -4172,7 +4171,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>69</v>
@@ -4192,7 +4191,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f>EDATE(A22,1)</f>
         <v>36617</v>
@@ -4219,7 +4218,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>72</v>
@@ -4239,7 +4238,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f>EDATE(A24,1)</f>
         <v>36647</v>
@@ -4266,7 +4265,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>57</v>
@@ -4288,7 +4287,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>73</v>
@@ -4308,7 +4307,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f>EDATE(A26,1)</f>
         <v>36678</v>
@@ -4333,7 +4332,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>74</v>
@@ -4353,7 +4352,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f>EDATE(A29,1)</f>
         <v>36708</v>
@@ -4378,7 +4377,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" ref="A32" si="1">EDATE(A31,1)</f>
         <v>36739</v>
@@ -4403,7 +4402,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>61</v>
@@ -4425,7 +4424,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f>EDATE(A32,1)</f>
         <v>36770</v>
@@ -4452,7 +4451,7 @@
         <v>47386</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>47</v>
@@ -4472,7 +4471,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>73</v>
@@ -4492,7 +4491,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f>EDATE(A34,1)</f>
         <v>36800</v>
@@ -4519,7 +4518,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>57</v>
@@ -4541,7 +4540,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>76</v>
@@ -4561,7 +4560,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f>EDATE(A37,1)</f>
         <v>36831</v>
@@ -4586,7 +4585,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f>EDATE(A40,1)</f>
         <v>36861</v>
@@ -4611,7 +4610,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>78</v>
       </c>
@@ -4629,7 +4628,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f>EDATE(A41,1)</f>
         <v>36892</v>
@@ -4654,7 +4653,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f>EDATE(A43,1)</f>
         <v>36923</v>
@@ -4675,7 +4674,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f t="shared" ref="A45:A54" si="2">EDATE(A44,1)</f>
         <v>36951</v>
@@ -4702,7 +4701,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>61</v>
@@ -4724,7 +4723,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>79</v>
@@ -4746,7 +4745,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f>EDATE(A45,1)</f>
         <v>36982</v>
@@ -4767,7 +4766,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f t="shared" si="2"/>
         <v>37012</v>
@@ -4792,7 +4791,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f t="shared" si="2"/>
         <v>37043</v>
@@ -4813,7 +4812,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f t="shared" si="2"/>
         <v>37073</v>
@@ -4834,7 +4833,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f t="shared" si="2"/>
         <v>37104</v>
@@ -4861,7 +4860,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f t="shared" si="2"/>
         <v>37135</v>
@@ -4882,7 +4881,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="2"/>
         <v>37165</v>
@@ -4909,7 +4908,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>50</v>
@@ -4931,7 +4930,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f>EDATE(A54,1)</f>
         <v>37196</v>
@@ -4952,7 +4951,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <f>EDATE(A56,1)</f>
         <v>37226</v>
@@ -4977,7 +4976,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
         <v>81</v>
       </c>
@@ -4995,7 +4994,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f>EDATE(A57,1)</f>
         <v>37257</v>
@@ -5022,7 +5021,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>61</v>
@@ -5044,7 +5043,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f>EDATE(A59,1)</f>
         <v>37288</v>
@@ -5071,7 +5070,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <f t="shared" ref="A62:A75" si="3">EDATE(A61,1)</f>
         <v>37316</v>
@@ -5092,7 +5091,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f t="shared" si="3"/>
         <v>37347</v>
@@ -5119,7 +5118,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>55</v>
@@ -5141,7 +5140,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>61</v>
@@ -5163,7 +5162,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f>EDATE(A63,1)</f>
         <v>37377</v>
@@ -5190,7 +5189,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f t="shared" si="3"/>
         <v>37408</v>
@@ -5211,7 +5210,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f t="shared" si="3"/>
         <v>37438</v>
@@ -5238,7 +5237,7 @@
         <v>45132</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>61</v>
@@ -5260,7 +5259,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f>EDATE(A68,1)</f>
         <v>37469</v>
@@ -5287,7 +5286,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>61</v>
@@ -5309,7 +5308,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f>EDATE(A70,1)</f>
         <v>37500</v>
@@ -5336,7 +5335,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" si="3"/>
         <v>37530</v>
@@ -5357,7 +5356,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f>EDATE(A73,1)</f>
         <v>37561</v>
@@ -5384,7 +5383,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <f t="shared" si="3"/>
         <v>37591</v>
@@ -5405,7 +5404,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
         <v>83</v>
       </c>
@@ -5423,7 +5422,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f>EDATE(A75,1)</f>
         <v>37622</v>
@@ -5450,7 +5449,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f>EDATE(A77,1)</f>
         <v>37653</v>
@@ -5477,7 +5476,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f t="shared" ref="A79:A88" si="4">EDATE(A78,1)</f>
         <v>37681</v>
@@ -5504,7 +5503,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f t="shared" si="4"/>
         <v>37712</v>
@@ -5531,7 +5530,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f t="shared" si="4"/>
         <v>37742</v>
@@ -5556,7 +5555,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f t="shared" si="4"/>
         <v>37773</v>
@@ -5577,7 +5576,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <f t="shared" si="4"/>
         <v>37803</v>
@@ -5598,7 +5597,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <f t="shared" si="4"/>
         <v>37834</v>
@@ -5619,7 +5618,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f t="shared" si="4"/>
         <v>37865</v>
@@ -5640,7 +5639,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <f t="shared" si="4"/>
         <v>37895</v>
@@ -5665,7 +5664,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f t="shared" si="4"/>
         <v>37926</v>
@@ -5686,7 +5685,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <f t="shared" si="4"/>
         <v>37956</v>
@@ -5713,7 +5712,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="47" t="s">
         <v>88</v>
       </c>
@@ -5731,7 +5730,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f>EDATE(A88,1)</f>
         <v>37987</v>
@@ -5752,7 +5751,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f>EDATE(A90,1)</f>
         <v>38018</v>
@@ -5773,7 +5772,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f t="shared" ref="A92:A102" si="5">EDATE(A91,1)</f>
         <v>38047</v>
@@ -5800,7 +5799,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f t="shared" si="5"/>
         <v>38078</v>
@@ -5825,7 +5824,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f t="shared" si="5"/>
         <v>38108</v>
@@ -5850,7 +5849,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f t="shared" si="5"/>
         <v>38139</v>
@@ -5875,7 +5874,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f>EDATE(A95,1)</f>
         <v>38169</v>
@@ -5902,7 +5901,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>92</v>
@@ -5922,7 +5921,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>47</v>
@@ -5942,7 +5941,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <f>EDATE(A96,1)</f>
         <v>38200</v>
@@ -5969,7 +5968,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>73</v>
@@ -5989,7 +5988,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <f>EDATE(A99,1)</f>
         <v>38231</v>
@@ -6014,7 +6013,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f t="shared" si="5"/>
         <v>38261</v>
@@ -6041,7 +6040,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>50</v>
@@ -6063,7 +6062,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>94</v>
@@ -6083,7 +6082,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f>EDATE(A102,1)</f>
         <v>38292</v>
@@ -6110,7 +6109,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>95</v>
@@ -6130,7 +6129,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f>EDATE(A105,1)</f>
         <v>38322</v>
@@ -6157,7 +6156,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>50</v>
@@ -6179,7 +6178,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>96</v>
@@ -6199,7 +6198,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="47" t="s">
         <v>97</v>
       </c>
@@ -6217,7 +6216,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <f>EDATE(A107,1)</f>
         <v>38353</v>
@@ -6244,7 +6243,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>98</v>
@@ -6264,7 +6263,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f>EDATE(A111,1)</f>
         <v>38384</v>
@@ -6291,7 +6290,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>99</v>
@@ -6311,7 +6310,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <f>EDATE(A113,1)</f>
         <v>38412</v>
@@ -6338,7 +6337,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>100</v>
@@ -6358,7 +6357,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <f>EDATE(A115,1)</f>
         <v>38443</v>
@@ -6385,7 +6384,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>101</v>
@@ -6409,7 +6408,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>102</v>
@@ -6429,7 +6428,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <f>EDATE(A117,1)</f>
         <v>38473</v>
@@ -6458,7 +6457,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>65</v>
@@ -6480,7 +6479,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>104</v>
@@ -6500,7 +6499,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <f>EDATE(A120,1)</f>
         <v>38504</v>
@@ -6527,7 +6526,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <f t="shared" ref="A124:A131" si="6">EDATE(A123,1)</f>
         <v>38534</v>
@@ -6554,7 +6553,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>47</v>
@@ -6574,7 +6573,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>106</v>
@@ -6596,7 +6595,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>107</v>
@@ -6618,7 +6617,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f>EDATE(A124,1)</f>
         <v>38565</v>
@@ -6639,7 +6638,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f t="shared" si="6"/>
         <v>38596</v>
@@ -6666,7 +6665,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <f t="shared" si="6"/>
         <v>38626</v>
@@ -6687,7 +6686,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <f t="shared" si="6"/>
         <v>38657</v>
@@ -6708,7 +6707,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <f>EDATE(A131,1)</f>
         <v>38687</v>
@@ -6729,7 +6728,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="47" t="s">
         <v>109</v>
       </c>
@@ -6747,7 +6746,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <f>EDATE(A132,1)</f>
         <v>38718</v>
@@ -6768,7 +6767,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <f>EDATE(A134,1)</f>
         <v>38749</v>
@@ -6789,7 +6788,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <f t="shared" ref="A136:A145" si="7">EDATE(A135,1)</f>
         <v>38777</v>
@@ -6814,7 +6813,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f t="shared" si="7"/>
         <v>38808</v>
@@ -6835,7 +6834,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <f t="shared" si="7"/>
         <v>38838</v>
@@ -6862,7 +6861,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <f t="shared" si="7"/>
         <v>38869</v>
@@ -6883,7 +6882,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <f t="shared" si="7"/>
         <v>38899</v>
@@ -6904,7 +6903,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <f t="shared" si="7"/>
         <v>38930</v>
@@ -6929,7 +6928,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <f t="shared" si="7"/>
         <v>38961</v>
@@ -6956,7 +6955,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <f t="shared" si="7"/>
         <v>38991</v>
@@ -6977,7 +6976,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <f t="shared" si="7"/>
         <v>39022</v>
@@ -6998,7 +6997,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <f t="shared" si="7"/>
         <v>39052</v>
@@ -7023,7 +7022,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="47" t="s">
         <v>110</v>
       </c>
@@ -7041,7 +7040,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="50" t="s">
         <v>111</v>
       </c>
@@ -7063,7 +7062,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>39209</v>
       </c>
@@ -7089,7 +7088,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>55</v>
@@ -7111,7 +7110,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>56</v>
@@ -7133,7 +7132,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>55</v>
@@ -7155,7 +7154,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>113</v>
@@ -7175,7 +7174,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <f>EDATE(A148,1)</f>
         <v>39240</v>
@@ -7200,7 +7199,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>50</v>
@@ -7222,7 +7221,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>39270</v>
@@ -7247,7 +7246,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>47</v>
@@ -7267,7 +7266,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>47</v>
@@ -7287,7 +7286,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <f>EDATE(A155,1)</f>
         <v>39301</v>
@@ -7312,7 +7311,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <f>EDATE(A158,1)</f>
         <v>39332</v>
@@ -7339,7 +7338,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>117</v>
@@ -7359,7 +7358,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="51"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>55</v>
@@ -7381,7 +7380,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <f>EDATE(A159,1)</f>
         <v>39362</v>
@@ -7408,7 +7407,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>118</v>
@@ -7428,7 +7427,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="51"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <f>EDATE(A162,1)</f>
         <v>39393</v>
@@ -7455,7 +7454,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>119</v>
@@ -7475,7 +7474,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="51"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <f t="shared" ref="A166" si="8">EDATE(A164,1)</f>
         <v>39423</v>
@@ -7502,7 +7501,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>55</v>
@@ -7524,7 +7523,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>121</v>
@@ -7544,7 +7543,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="47" t="s">
         <v>122</v>
       </c>
@@ -7562,7 +7561,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <f>EDATE(A166,1)</f>
         <v>39454</v>
@@ -7589,7 +7588,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>47</v>
@@ -7609,7 +7608,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>55</v>
@@ -7631,7 +7630,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>55</v>
@@ -7653,7 +7652,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>55</v>
@@ -7675,7 +7674,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <f>EDATE(A170,1)</f>
         <v>39485</v>
@@ -7702,7 +7701,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>52</v>
@@ -7724,7 +7723,7 @@
         <v>44964</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <f>EDATE(A175,1)</f>
         <v>39514</v>
@@ -7751,7 +7750,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>47</v>
@@ -7771,7 +7770,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <f>EDATE(A177,1)</f>
         <v>39545</v>
@@ -7796,7 +7795,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <f t="shared" ref="A180" si="9">EDATE(A179,1)</f>
         <v>39575</v>
@@ -7823,7 +7822,7 @@
         <v>45037</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>55</v>
@@ -7845,7 +7844,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>55</v>
@@ -7867,7 +7866,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <f>EDATE(A180,1)</f>
         <v>39606</v>
@@ -7892,7 +7891,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>103</v>
@@ -7916,7 +7915,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>123</v>
@@ -7936,7 +7935,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <f>EDATE(A183,1)</f>
         <v>39636</v>
@@ -7963,7 +7962,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>124</v>
@@ -7983,7 +7982,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="51"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>57</v>
@@ -8005,7 +8004,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <f>EDATE(A186,1)</f>
         <v>39667</v>
@@ -8032,7 +8031,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>125</v>
@@ -8052,7 +8051,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <f>EDATE(A189,1)</f>
         <v>39698</v>
@@ -8077,7 +8076,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>126</v>
@@ -8101,7 +8100,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>127</v>
@@ -8121,7 +8120,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <f>EDATE(A191,1)</f>
         <v>39728</v>
@@ -8148,7 +8147,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>128</v>
@@ -8168,7 +8167,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <f>EDATE(A194,1)</f>
         <v>39759</v>
@@ -8195,7 +8194,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>55</v>
@@ -8217,7 +8216,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>52</v>
@@ -8239,7 +8238,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>129</v>
@@ -8259,7 +8258,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <f>EDATE(A196,1)</f>
         <v>39789</v>
@@ -8286,7 +8285,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>130</v>
@@ -8306,7 +8305,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="47" t="s">
         <v>131</v>
       </c>
@@ -8324,7 +8323,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <f>EDATE(A200,1)</f>
         <v>39820</v>
@@ -8351,7 +8350,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>48</v>
@@ -8371,7 +8370,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>55</v>
@@ -8393,7 +8392,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>132</v>
@@ -8413,7 +8412,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="51"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <f>EDATE(A203,1)</f>
         <v>39851</v>
@@ -8438,7 +8437,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>47</v>
@@ -8458,7 +8457,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>47</v>
@@ -8478,7 +8477,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>133</v>
@@ -8498,7 +8497,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <f>EDATE(A207,1)</f>
         <v>39879</v>
@@ -8527,7 +8526,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>134</v>
@@ -8547,7 +8546,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <f>EDATE(A211,1)</f>
         <v>39910</v>
@@ -8574,7 +8573,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>135</v>
@@ -8594,7 +8593,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <f>EDATE(A213,1)</f>
         <v>39940</v>
@@ -8621,7 +8620,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>52</v>
@@ -8643,7 +8642,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>136</v>
@@ -8663,7 +8662,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <f>EDATE(A215,1)</f>
         <v>39971</v>
@@ -8692,7 +8691,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>52</v>
@@ -8714,7 +8713,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>126</v>
@@ -8736,7 +8735,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>138</v>
@@ -8758,7 +8757,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>139</v>
@@ -8778,7 +8777,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <f>EDATE(A218,1)</f>
         <v>40001</v>
@@ -8805,7 +8804,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>140</v>
@@ -8825,7 +8824,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <f>EDATE(A223,1)</f>
         <v>40032</v>
@@ -8850,7 +8849,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>47</v>
@@ -8870,7 +8869,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>141</v>
@@ -8890,7 +8889,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <f>EDATE(A225,1)</f>
         <v>40063</v>
@@ -8917,7 +8916,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>55</v>
@@ -8939,7 +8938,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>142</v>
@@ -8959,7 +8958,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <f>EDATE(A228,1)</f>
         <v>40093</v>
@@ -8986,7 +8985,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>143</v>
@@ -9006,7 +9005,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <f>EDATE(A231,1)</f>
         <v>40124</v>
@@ -9033,7 +9032,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>55</v>
@@ -9055,7 +9054,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>145</v>
@@ -9075,7 +9074,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <f t="shared" ref="A236" si="10">EDATE(A233,1)</f>
         <v>40154</v>
@@ -9102,7 +9101,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>146</v>
@@ -9122,7 +9121,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="47" t="s">
         <v>147</v>
       </c>
@@ -9140,7 +9139,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <f>EDATE(A236,1)</f>
         <v>40185</v>
@@ -9165,7 +9164,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>148</v>
@@ -9185,7 +9184,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <f>EDATE(A239,1)</f>
         <v>40216</v>
@@ -9212,7 +9211,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>61</v>
@@ -9234,7 +9233,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>150</v>
@@ -9254,7 +9253,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <f>EDATE(A241,1)</f>
         <v>40244</v>
@@ -9281,7 +9280,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>52</v>
@@ -9303,7 +9302,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>151</v>
@@ -9323,7 +9322,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <f>EDATE(A244,1)</f>
         <v>40275</v>
@@ -9350,7 +9349,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>61</v>
@@ -9370,7 +9369,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>126</v>
@@ -9394,7 +9393,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>152</v>
@@ -9414,7 +9413,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="51"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <f>EDATE(A247,1)</f>
         <v>40305</v>
@@ -9441,7 +9440,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>65</v>
@@ -9463,7 +9462,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>153</v>
@@ -9483,7 +9482,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <f>EDATE(A251,1)</f>
         <v>40336</v>
@@ -9512,7 +9511,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>155</v>
@@ -9534,7 +9533,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <f>EDATE(A254,1)</f>
         <v>40366</v>
@@ -9561,7 +9560,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <f>EDATE(A256,1)</f>
         <v>40397</v>
@@ -9588,7 +9587,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>158</v>
@@ -9608,7 +9607,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <f>EDATE(A257,1)</f>
         <v>40428</v>
@@ -9633,7 +9632,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <f>EDATE(A259,1)</f>
         <v>40458</v>
@@ -9658,7 +9657,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <f t="shared" ref="A261" si="11">EDATE(A260,1)</f>
         <v>40489</v>
@@ -9685,7 +9684,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>161</v>
@@ -9705,7 +9704,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <f>EDATE(A261,1)</f>
         <v>40519</v>
@@ -9730,7 +9729,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="47" t="s">
         <v>163</v>
       </c>
@@ -9748,7 +9747,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <f>EDATE(A263,1)</f>
         <v>40550</v>
@@ -9773,7 +9772,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <f>EDATE(A265,1)</f>
         <v>40581</v>
@@ -9800,7 +9799,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>52</v>
@@ -9822,7 +9821,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>165</v>
@@ -9842,7 +9841,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="51"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <f>EDATE(A266,1)</f>
         <v>40609</v>
@@ -9869,7 +9868,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>55</v>
@@ -9891,7 +9890,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>47</v>
@@ -9911,7 +9910,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>166</v>
@@ -9931,7 +9930,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <f>EDATE(A269,1)</f>
         <v>40640</v>
@@ -9958,7 +9957,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>167</v>
@@ -9978,7 +9977,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <f>EDATE(A273,1)</f>
         <v>40670</v>
@@ -10003,7 +10002,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>55</v>
@@ -10025,7 +10024,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>55</v>
@@ -10047,7 +10046,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>168</v>
@@ -10067,7 +10066,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <f>EDATE(A275,1)</f>
         <v>40701</v>
@@ -10094,7 +10093,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
         <v>47</v>
@@ -10114,7 +10113,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>169</v>
@@ -10134,7 +10133,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <f>EDATE(A279,1)</f>
         <v>40731</v>
@@ -10161,7 +10160,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>170</v>
@@ -10181,7 +10180,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <f>EDATE(A282,1)</f>
         <v>40762</v>
@@ -10208,7 +10207,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>138</v>
@@ -10232,7 +10231,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>171</v>
@@ -10252,7 +10251,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <f>EDATE(A284,1)</f>
         <v>40793</v>
@@ -10279,7 +10278,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>126</v>
@@ -10301,7 +10300,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>172</v>
@@ -10321,7 +10320,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <f>EDATE(A287,1)</f>
         <v>40823</v>
@@ -10348,7 +10347,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>138</v>
@@ -10372,7 +10371,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>126</v>
@@ -10392,7 +10391,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>173</v>
@@ -10412,7 +10411,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <f t="shared" ref="A294" si="12">EDATE(A290,1)</f>
         <v>40854</v>
@@ -10439,7 +10438,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>174</v>
@@ -10459,7 +10458,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <f>EDATE(A294,1)</f>
         <v>40884</v>
@@ -10486,7 +10485,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>175</v>
@@ -10506,7 +10505,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="47" t="s">
         <v>176</v>
       </c>
@@ -10524,7 +10523,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <f>EDATE(A296,1)</f>
         <v>40915</v>
@@ -10551,7 +10550,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>103</v>
@@ -10575,7 +10574,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>177</v>
@@ -10597,7 +10596,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <f>EDATE(A299,1)</f>
         <v>40946</v>
@@ -10626,7 +10625,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>178</v>
@@ -10646,7 +10645,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <f>EDATE(A302,1)</f>
         <v>40975</v>
@@ -10675,7 +10674,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>61</v>
@@ -10697,7 +10696,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>179</v>
@@ -10717,7 +10716,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <f>EDATE(A304,1)</f>
         <v>41006</v>
@@ -10746,7 +10745,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>180</v>
@@ -10766,7 +10765,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <f>EDATE(A307,1)</f>
         <v>41036</v>
@@ -10793,7 +10792,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>181</v>
@@ -10813,7 +10812,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>50</v>
@@ -10835,7 +10834,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>108</v>
@@ -10857,7 +10856,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <f>EDATE(A309,1)</f>
         <v>41067</v>
@@ -10882,7 +10881,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <f t="shared" ref="A314:A319" si="13">EDATE(A313,1)</f>
         <v>41097</v>
@@ -10907,7 +10906,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>55</v>
@@ -10929,7 +10928,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>184</v>
@@ -10949,7 +10948,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <f>EDATE(A314,1)</f>
         <v>41128</v>
@@ -10974,7 +10973,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <f t="shared" si="13"/>
         <v>41159</v>
@@ -10999,7 +10998,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <f t="shared" si="13"/>
         <v>41189</v>
@@ -11026,7 +11025,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>55</v>
@@ -11048,7 +11047,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>187</v>
@@ -11068,7 +11067,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <f>EDATE(A319,1)</f>
         <v>41220</v>
@@ -11095,7 +11094,7 @@
         <v>45244</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>188</v>
@@ -11115,7 +11114,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <f>EDATE(A322,1)</f>
         <v>41250</v>
@@ -11144,7 +11143,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>189</v>
@@ -11164,7 +11163,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="47" t="s">
         <v>190</v>
       </c>
@@ -11182,7 +11181,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <f>EDATE(A324,1)</f>
         <v>41281</v>
@@ -11213,7 +11212,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>192</v>
@@ -11233,7 +11232,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <f>EDATE(A327,1)</f>
         <v>41312</v>
@@ -11260,7 +11259,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>188</v>
@@ -11280,7 +11279,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="51"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <f>EDATE(A329,1)</f>
         <v>41340</v>
@@ -11307,7 +11306,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>77</v>
@@ -11327,7 +11326,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <f>EDATE(A331,1)</f>
         <v>41371</v>
@@ -11354,7 +11353,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>193</v>
@@ -11374,7 +11373,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <f>EDATE(A333,1)</f>
         <v>41401</v>
@@ -11401,7 +11400,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
         <v>194</v>
@@ -11421,7 +11420,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <f>EDATE(A335,1)</f>
         <v>41432</v>
@@ -11448,7 +11447,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>150</v>
@@ -11468,7 +11467,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <f>EDATE(A337,1)</f>
         <v>41462</v>
@@ -11493,7 +11492,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23">
         <f t="shared" ref="A340" si="14">EDATE(A339,1)</f>
         <v>41493</v>
@@ -11520,7 +11519,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
         <v>196</v>
@@ -11540,7 +11539,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="51"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <f>EDATE(A340,1)</f>
         <v>41524</v>
@@ -11567,7 +11566,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
         <v>197</v>
@@ -11587,7 +11586,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="51"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23">
         <f>EDATE(A342,1)</f>
         <v>41554</v>
@@ -11614,7 +11613,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>50</v>
@@ -11636,7 +11635,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
         <v>198</v>
@@ -11656,7 +11655,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <f>EDATE(A344,1)</f>
         <v>41585</v>
@@ -11683,7 +11682,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>183</v>
@@ -11703,7 +11702,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>199</v>
@@ -11723,7 +11722,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <f>EDATE(A347,1)</f>
         <v>41615</v>
@@ -11750,7 +11749,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23"/>
       <c r="B351" s="20" t="s">
         <v>200</v>
@@ -11770,7 +11769,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="47" t="s">
         <v>201</v>
       </c>
@@ -11788,7 +11787,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <f>EDATE(A350,1)</f>
         <v>41646</v>
@@ -11815,7 +11814,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>52</v>
@@ -11837,7 +11836,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>202</v>
@@ -11857,7 +11856,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <f>EDATE(A353,1)</f>
         <v>41677</v>
@@ -11884,7 +11883,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>144</v>
@@ -11906,7 +11905,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>55</v>
@@ -11928,7 +11927,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>144</v>
@@ -11950,7 +11949,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>203</v>
@@ -11970,7 +11969,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <f>EDATE(A356,1)</f>
         <v>41705</v>
@@ -11995,7 +11994,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <f t="shared" ref="A362:A363" si="15">EDATE(A361,1)</f>
         <v>41736</v>
@@ -12020,7 +12019,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <f t="shared" si="15"/>
         <v>41766</v>
@@ -12047,7 +12046,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>206</v>
@@ -12067,7 +12066,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <f>EDATE(A363,1)</f>
         <v>41797</v>
@@ -12094,7 +12093,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
         <v>55</v>
@@ -12116,7 +12115,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>208</v>
@@ -12136,7 +12135,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
         <f>EDATE(A365,1)</f>
         <v>41827</v>
@@ -12163,7 +12162,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>61</v>
@@ -12185,7 +12184,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>47</v>
@@ -12205,7 +12204,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>209</v>
@@ -12225,7 +12224,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23">
         <f>EDATE(A368,1)</f>
         <v>41858</v>
@@ -12252,7 +12251,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>210</v>
@@ -12272,7 +12271,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
         <f>EDATE(A372,1)</f>
         <v>41889</v>
@@ -12297,7 +12296,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
         <v>101</v>
@@ -12321,7 +12320,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>211</v>
@@ -12341,7 +12340,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23">
         <f>EDATE(A374,1)</f>
         <v>41919</v>
@@ -12368,7 +12367,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>212</v>
@@ -12388,7 +12387,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <f>EDATE(A377,1)</f>
         <v>41950</v>
@@ -12415,7 +12414,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
         <v>103</v>
@@ -12439,7 +12438,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>48</v>
@@ -12459,7 +12458,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>213</v>
@@ -12479,7 +12478,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23">
         <f>EDATE(A379,1)</f>
         <v>41980</v>
@@ -12504,7 +12503,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="47" t="s">
         <v>215</v>
       </c>
@@ -12522,7 +12521,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <f>EDATE(A383,1)</f>
         <v>42011</v>
@@ -12549,7 +12548,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23"/>
       <c r="B386" s="20" t="s">
         <v>55</v>
@@ -12571,7 +12570,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
         <v>216</v>
@@ -12591,7 +12590,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23">
         <f>EDATE(A385,1)</f>
         <v>42042</v>
@@ -12618,7 +12617,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>55</v>
@@ -12640,7 +12639,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>217</v>
@@ -12660,7 +12659,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <f>EDATE(A388,1)</f>
         <v>42070</v>
@@ -12687,7 +12686,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>218</v>
@@ -12707,7 +12706,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23">
         <f>EDATE(A391,1)</f>
         <v>42101</v>
@@ -12732,7 +12731,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23"/>
       <c r="B394" s="20" t="s">
         <v>219</v>
@@ -12752,7 +12751,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <f>EDATE(A393,1)</f>
         <v>42131</v>
@@ -12779,7 +12778,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>220</v>
@@ -12799,7 +12798,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23">
         <f>EDATE(A395,1)</f>
         <v>42162</v>
@@ -12826,7 +12825,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>55</v>
@@ -12848,7 +12847,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>221</v>
@@ -12868,7 +12867,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23">
         <f>EDATE(A397,1)</f>
         <v>42192</v>
@@ -12897,7 +12896,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>222</v>
@@ -12917,7 +12916,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23">
         <f>EDATE(A400,1)</f>
         <v>42223</v>
@@ -12946,7 +12945,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>50</v>
@@ -12968,7 +12967,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>223</v>
@@ -12988,7 +12987,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <f>EDATE(A402,1)</f>
         <v>42254</v>
@@ -13013,7 +13012,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <f t="shared" ref="A406:A407" si="16">EDATE(A405,1)</f>
         <v>42284</v>
@@ -13038,7 +13037,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23">
         <f t="shared" si="16"/>
         <v>42315</v>
@@ -13065,7 +13064,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
         <v>226</v>
@@ -13085,7 +13084,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <f>EDATE(A407,1)</f>
         <v>42345</v>
@@ -13112,7 +13111,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="47"/>
       <c r="B410" s="20" t="s">
         <v>227</v>
@@ -13132,7 +13131,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="47" t="s">
         <v>228</v>
       </c>
@@ -13150,7 +13149,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <f>EDATE(A409,1)</f>
         <v>42376</v>
@@ -13175,7 +13174,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <f>EDATE(A412,1)</f>
         <v>42407</v>
@@ -13202,7 +13201,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
         <v>56</v>
@@ -13224,7 +13223,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>230</v>
@@ -13246,7 +13245,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23"/>
       <c r="B416" s="20" t="s">
         <v>231</v>
@@ -13266,7 +13265,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23">
         <f>EDATE(A413,1)</f>
         <v>42436</v>
@@ -13291,7 +13290,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <f t="shared" ref="A418:A432" si="17">EDATE(A417,1)</f>
         <v>42467</v>
@@ -13316,7 +13315,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23"/>
       <c r="B419" s="20" t="s">
         <v>50</v>
@@ -13338,7 +13337,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>233</v>
@@ -13358,7 +13357,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23">
         <f>EDATE(A418,1)</f>
         <v>42497</v>
@@ -13383,7 +13382,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23">
         <f t="shared" si="17"/>
         <v>42528</v>
@@ -13412,7 +13411,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23"/>
       <c r="B423" s="20" t="s">
         <v>235</v>
@@ -13432,7 +13431,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23">
         <f>EDATE(A422,1)</f>
         <v>42558</v>
@@ -13459,7 +13458,7 @@
         <v>45132</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>236</v>
@@ -13479,7 +13478,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23">
         <f>EDATE(A424,1)</f>
         <v>42589</v>
@@ -13504,7 +13503,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
         <v>237</v>
@@ -13524,7 +13523,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23">
         <f>EDATE(A426,1)</f>
         <v>42620</v>
@@ -13551,7 +13550,7 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>55</v>
@@ -13573,7 +13572,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23"/>
       <c r="B430" s="20" t="s">
         <v>238</v>
@@ -13593,7 +13592,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23">
         <f>EDATE(A428,1)</f>
         <v>42650</v>
@@ -13618,7 +13617,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23">
         <f t="shared" si="17"/>
         <v>42681</v>
@@ -13643,7 +13642,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23">
         <f>EDATE(A432,1)</f>
         <v>42711</v>
@@ -13670,7 +13669,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="47"/>
       <c r="B434" s="20" t="s">
         <v>48</v>
@@ -13690,7 +13689,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="47"/>
       <c r="B435" s="20" t="s">
         <v>74</v>
@@ -13710,7 +13709,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="47" t="s">
         <v>241</v>
       </c>
@@ -13728,7 +13727,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23">
         <f>EDATE(A433,1)</f>
         <v>42742</v>
@@ -13755,7 +13754,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23" t="s">
         <v>242</v>
       </c>
@@ -13777,7 +13776,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23">
         <f>EDATE(A437,1)</f>
         <v>42773</v>
@@ -13804,7 +13803,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23"/>
       <c r="B440" s="20" t="s">
         <v>243</v>
@@ -13824,7 +13823,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23">
         <f>EDATE(A439,1)</f>
         <v>42801</v>
@@ -13851,7 +13850,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>47</v>
@@ -13871,7 +13870,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23"/>
       <c r="B443" s="20" t="s">
         <v>244</v>
@@ -13891,7 +13890,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23">
         <f>EDATE(A441,1)</f>
         <v>42832</v>
@@ -13918,7 +13917,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23"/>
       <c r="B445" s="20" t="s">
         <v>48</v>
@@ -13938,7 +13937,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23"/>
       <c r="B446" s="20" t="s">
         <v>55</v>
@@ -13960,7 +13959,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23"/>
       <c r="B447" s="20" t="s">
         <v>245</v>
@@ -13980,7 +13979,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>55</v>
@@ -14002,7 +14001,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23">
         <f>EDATE(A444,1)</f>
         <v>42862</v>
@@ -14027,7 +14026,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23">
         <f t="shared" ref="A450:A459" si="18">EDATE(A449,1)</f>
         <v>42893</v>
@@ -14052,7 +14051,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23">
         <f t="shared" si="18"/>
         <v>42923</v>
@@ -14079,7 +14078,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23"/>
       <c r="B452" s="20" t="s">
         <v>47</v>
@@ -14099,7 +14098,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>55</v>
@@ -14121,7 +14120,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23"/>
       <c r="B454" s="20" t="s">
         <v>52</v>
@@ -14143,7 +14142,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23"/>
       <c r="B455" s="20" t="s">
         <v>52</v>
@@ -14165,7 +14164,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
         <v>247</v>
@@ -14185,7 +14184,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23">
         <f>EDATE(A451,1)</f>
         <v>42954</v>
@@ -14210,7 +14209,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23">
         <f t="shared" si="18"/>
         <v>42985</v>
@@ -14231,7 +14230,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23">
         <f t="shared" si="18"/>
         <v>43015</v>
@@ -14258,7 +14257,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="23"/>
       <c r="B460" s="20" t="s">
         <v>55</v>
@@ -14280,7 +14279,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23"/>
       <c r="B461" s="20" t="s">
         <v>184</v>
@@ -14300,7 +14299,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23">
         <f>EDATE(A459,1)</f>
         <v>43046</v>
@@ -14321,7 +14320,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23">
         <f>EDATE(A462,1)</f>
         <v>43076</v>
@@ -14348,7 +14347,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="47"/>
       <c r="B464" s="20" t="s">
         <v>126</v>
@@ -14372,7 +14371,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="47" t="s">
         <v>249</v>
       </c>
@@ -14390,7 +14389,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <f>EDATE(A463,1)</f>
         <v>43107</v>
@@ -14415,7 +14414,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
         <v>55</v>
@@ -14437,7 +14436,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>250</v>
@@ -14459,7 +14458,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23">
         <f>EDATE(A466,1)</f>
         <v>43138</v>
@@ -14484,7 +14483,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23">
         <f t="shared" ref="A470:A485" si="19">EDATE(A469,1)</f>
         <v>43166</v>
@@ -14505,7 +14504,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23">
         <f t="shared" si="19"/>
         <v>43197</v>
@@ -14526,7 +14525,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23">
         <f t="shared" si="19"/>
         <v>43227</v>
@@ -14551,7 +14550,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="23">
         <f t="shared" si="19"/>
         <v>43258</v>
@@ -14576,7 +14575,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="23">
         <f t="shared" si="19"/>
         <v>43288</v>
@@ -14603,7 +14602,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="23"/>
       <c r="B475" s="20" t="s">
         <v>99</v>
@@ -14623,7 +14622,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="23">
         <f>EDATE(A474,1)</f>
         <v>43319</v>
@@ -14650,7 +14649,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="23"/>
       <c r="B477" s="20" t="s">
         <v>47</v>
@@ -14670,7 +14669,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23"/>
       <c r="B478" s="20" t="s">
         <v>253</v>
@@ -14690,7 +14689,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="23">
         <f>EDATE(A476,1)</f>
         <v>43350</v>
@@ -14717,7 +14716,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="23"/>
       <c r="B480" s="20" t="s">
         <v>55</v>
@@ -14739,7 +14738,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="23"/>
       <c r="B481" s="20" t="s">
         <v>254</v>
@@ -14759,7 +14758,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="23">
         <f>EDATE(A479,1)</f>
         <v>43380</v>
@@ -14784,7 +14783,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="23"/>
       <c r="B483" s="20" t="s">
         <v>255</v>
@@ -14804,7 +14803,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="23">
         <f>EDATE(A482,1)</f>
         <v>43411</v>
@@ -14829,7 +14828,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="23">
         <f t="shared" si="19"/>
         <v>43441</v>
@@ -14854,7 +14853,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="47" t="s">
         <v>258</v>
       </c>
@@ -14872,7 +14871,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23">
         <f>EDATE(A485,1)</f>
         <v>43472</v>
@@ -14897,7 +14896,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="23"/>
       <c r="B488" s="20" t="s">
         <v>55</v>
@@ -14919,7 +14918,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="23"/>
       <c r="B489" s="20" t="s">
         <v>259</v>
@@ -14939,7 +14938,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="23">
         <f>EDATE(A487,1)</f>
         <v>43503</v>
@@ -14966,7 +14965,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="23"/>
       <c r="B491" s="20" t="s">
         <v>74</v>
@@ -14986,7 +14985,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="23">
         <f>EDATE(A490,1)</f>
         <v>43531</v>
@@ -15011,7 +15010,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="23">
         <f t="shared" ref="A493:A508" si="20">EDATE(A492,1)</f>
         <v>43562</v>
@@ -15036,7 +15035,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="23"/>
       <c r="B494" s="20" t="s">
         <v>55</v>
@@ -15058,7 +15057,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="23"/>
       <c r="B495" s="20" t="s">
         <v>52</v>
@@ -15080,7 +15079,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="23"/>
       <c r="B496" s="20" t="s">
         <v>55</v>
@@ -15102,7 +15101,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="23"/>
       <c r="B497" s="20" t="s">
         <v>260</v>
@@ -15122,7 +15121,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="23">
         <f>EDATE(A493,1)</f>
         <v>43592</v>
@@ -15149,7 +15148,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="23"/>
       <c r="B499" s="20" t="s">
         <v>61</v>
@@ -15171,7 +15170,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="23"/>
       <c r="B500" s="20" t="s">
         <v>261</v>
@@ -15191,7 +15190,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="23">
         <f>EDATE(A498,1)</f>
         <v>43623</v>
@@ -15216,7 +15215,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="23"/>
       <c r="B502" s="20" t="s">
         <v>262</v>
@@ -15236,7 +15235,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="23">
         <f>EDATE(A501,1)</f>
         <v>43653</v>
@@ -15263,7 +15262,7 @@
         <v>45130</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="23"/>
       <c r="B504" s="20" t="s">
         <v>55</v>
@@ -15285,7 +15284,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="23"/>
       <c r="B505" s="20" t="s">
         <v>55</v>
@@ -15307,7 +15306,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="23"/>
       <c r="B506" s="20" t="s">
         <v>263</v>
@@ -15327,7 +15326,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="51"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="23">
         <f>EDATE(A503,1)</f>
         <v>43684</v>
@@ -15352,7 +15351,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="23">
         <f t="shared" si="20"/>
         <v>43715</v>
@@ -15379,7 +15378,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="23"/>
       <c r="B509" s="20" t="s">
         <v>151</v>
@@ -15399,7 +15398,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="23">
         <f>EDATE(A508,1)</f>
         <v>43745</v>
@@ -15426,7 +15425,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="23"/>
       <c r="B511" s="20" t="s">
         <v>55</v>
@@ -15448,7 +15447,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="23"/>
       <c r="B512" s="20" t="s">
         <v>52</v>
@@ -15470,7 +15469,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="23"/>
       <c r="B513" s="20" t="s">
         <v>55</v>
@@ -15492,7 +15491,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="23"/>
       <c r="B514" s="20" t="s">
         <v>210</v>
@@ -15512,7 +15511,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="23">
         <f>EDATE(A510,1)</f>
         <v>43776</v>
@@ -15539,7 +15538,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="23"/>
       <c r="B516" s="20" t="s">
         <v>52</v>
@@ -15561,7 +15560,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="23"/>
       <c r="B517" s="20" t="s">
         <v>265</v>
@@ -15581,7 +15580,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="23">
         <f>EDATE(A515,1)</f>
         <v>43806</v>
@@ -15608,7 +15607,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="47" t="s">
         <v>266</v>
       </c>
@@ -15626,7 +15625,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="23">
         <f>EDATE(A518,1)</f>
         <v>43837</v>
@@ -15653,7 +15652,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="23"/>
       <c r="B521" s="20" t="s">
         <v>267</v>
@@ -15673,7 +15672,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="23">
         <f>EDATE(A520,1)</f>
         <v>43868</v>
@@ -15696,7 +15695,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="23">
         <f t="shared" ref="A523:A533" si="21">EDATE(A522,1)</f>
         <v>43897</v>
@@ -15717,7 +15716,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="23">
         <f t="shared" si="21"/>
         <v>43928</v>
@@ -15738,7 +15737,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="23">
         <f t="shared" si="21"/>
         <v>43958</v>
@@ -15759,7 +15758,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="23">
         <f t="shared" si="21"/>
         <v>43989</v>
@@ -15780,7 +15779,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="23">
         <f t="shared" si="21"/>
         <v>44019</v>
@@ -15801,7 +15800,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="23">
         <f t="shared" si="21"/>
         <v>44050</v>
@@ -15822,7 +15821,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="23">
         <f t="shared" si="21"/>
         <v>44081</v>
@@ -15849,7 +15848,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="23"/>
       <c r="B530" s="20" t="s">
         <v>48</v>
@@ -15869,7 +15868,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="23">
         <f>EDATE(A529,1)</f>
         <v>44111</v>
@@ -15894,7 +15893,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="23">
         <f t="shared" si="21"/>
         <v>44142</v>
@@ -15915,7 +15914,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="23">
         <f t="shared" si="21"/>
         <v>44172</v>
@@ -15942,7 +15941,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="47" t="s">
         <v>45</v>
       </c>
@@ -15960,7 +15959,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="39">
         <v>44197</v>
       </c>
@@ -15984,7 +15983,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="39">
         <v>44228</v>
       </c>
@@ -16008,7 +16007,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="39"/>
       <c r="B537" s="20" t="s">
         <v>50</v>
@@ -16030,7 +16029,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="39">
         <v>44256</v>
       </c>
@@ -16050,7 +16049,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="39">
         <v>44287</v>
       </c>
@@ -16076,7 +16075,7 @@
         <v>44326</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="39">
         <v>44317</v>
       </c>
@@ -16096,7 +16095,7 @@
       <c r="J540" s="12"/>
       <c r="K540" s="15"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="39">
         <v>44348</v>
       </c>
@@ -16116,7 +16115,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="39">
         <v>44378</v>
       </c>
@@ -16142,7 +16141,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="39">
         <v>44409</v>
       </c>
@@ -16162,7 +16161,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="39">
         <v>44440</v>
       </c>
@@ -16182,7 +16181,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="39">
         <v>44470</v>
       </c>
@@ -16208,7 +16207,7 @@
         <v>44493</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="39">
         <v>44501</v>
       </c>
@@ -16234,7 +16233,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="39">
         <v>44531</v>
       </c>
@@ -16260,7 +16259,7 @@
         <v>44545</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="47" t="s">
         <v>46</v>
       </c>
@@ -16278,7 +16277,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="39">
         <v>44562</v>
       </c>
@@ -16304,7 +16303,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="39">
         <v>44593</v>
       </c>
@@ -16330,7 +16329,7 @@
         <v>44610</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="39">
         <v>44621</v>
       </c>
@@ -16354,7 +16353,7 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="39">
         <v>44652</v>
       </c>
@@ -16380,7 +16379,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="39">
         <v>44682</v>
       </c>
@@ -16404,7 +16403,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="39">
         <v>44713</v>
       </c>
@@ -16430,7 +16429,7 @@
         <v>44739</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="39">
         <v>44743</v>
       </c>
@@ -16456,7 +16455,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="39"/>
       <c r="B556" s="20" t="s">
         <v>61</v>
@@ -16478,7 +16477,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="39">
         <v>44774</v>
       </c>
@@ -16504,7 +16503,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="39">
         <v>44805</v>
       </c>
@@ -16530,7 +16529,7 @@
         <v>44809</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="39"/>
       <c r="B559" s="20" t="s">
         <v>55</v>
@@ -16552,7 +16551,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="39">
         <v>44835</v>
       </c>
@@ -16572,7 +16571,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="39">
         <v>44866</v>
       </c>
@@ -16598,7 +16597,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="39"/>
       <c r="B562" s="20" t="s">
         <v>61</v>
@@ -16620,7 +16619,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="39">
         <v>44896</v>
       </c>
@@ -16646,7 +16645,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="47" t="s">
         <v>67</v>
       </c>
@@ -16664,7 +16663,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="39">
         <v>44927</v>
       </c>
@@ -16690,7 +16689,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="39">
         <v>44958</v>
       </c>
@@ -16716,7 +16715,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="39"/>
       <c r="B567" s="20" t="s">
         <v>47</v>
@@ -16736,7 +16735,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="39">
         <v>44986</v>
       </c>
@@ -16760,7 +16759,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="39">
         <v>45017</v>
       </c>
@@ -16780,7 +16779,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="39">
         <v>45047</v>
       </c>
@@ -16806,7 +16805,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="39"/>
       <c r="B571" s="20" t="s">
         <v>52</v>
@@ -16828,7 +16827,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="39"/>
       <c r="B572" s="20" t="s">
         <v>55</v>
@@ -16850,11 +16849,13 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="39">
         <v>45078</v>
       </c>
-      <c r="B573" s="20"/>
+      <c r="B573" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C573" s="13"/>
       <c r="D573" s="38"/>
       <c r="E573" s="9"/>
@@ -16863,16 +16864,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H573" s="38"/>
+      <c r="H573" s="38">
+        <v>1</v>
+      </c>
       <c r="I573" s="9"/>
       <c r="J573" s="11"/>
-      <c r="K573" s="20"/>
-    </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A574" s="39">
-        <v>45108</v>
-      </c>
-      <c r="B574" s="20"/>
+      <c r="K573" s="48">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A574" s="39"/>
+      <c r="B574" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C574" s="13"/>
       <c r="D574" s="38"/>
       <c r="E574" s="9"/>
@@ -16881,14 +16886,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H574" s="38"/>
+      <c r="H574" s="38">
+        <v>1</v>
+      </c>
       <c r="I574" s="9"/>
       <c r="J574" s="11"/>
-      <c r="K574" s="20"/>
-    </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K574" s="48">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="39">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16904,9 +16913,9 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="39">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16922,9 +16931,9 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="39">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16940,9 +16949,9 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="39">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16958,9 +16967,9 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="39">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16976,9 +16985,9 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="39">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -16994,9 +17003,9 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="39">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -17012,9 +17021,9 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="39">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -17030,9 +17039,9 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -17048,9 +17057,9 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -17066,9 +17075,9 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -17084,9 +17093,9 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -17102,9 +17111,9 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="39">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -17120,9 +17129,9 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="39">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -17138,9 +17147,9 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="39">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -17156,9 +17165,9 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="39">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -17174,9 +17183,9 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="39">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -17192,9 +17201,9 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="39">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17210,9 +17219,9 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="39">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17228,9 +17237,9 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="39">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17246,9 +17255,9 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="39">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17264,9 +17273,9 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="39">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17282,9 +17291,9 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="39">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17300,9 +17309,9 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="39">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17318,9 +17327,9 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="39">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17336,9 +17345,9 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="39">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17354,9 +17363,9 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="39">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17372,9 +17381,9 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="39">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17390,9 +17399,9 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="39">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17408,9 +17417,9 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="39">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17426,9 +17435,9 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="39">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17444,9 +17453,9 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="39">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17462,9 +17471,9 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="39">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17480,9 +17489,9 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="39">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17498,9 +17507,9 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="39">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17516,9 +17525,9 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="39">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17534,9 +17543,9 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="39">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17552,9 +17561,9 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="39">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17570,9 +17579,9 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="39">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17588,9 +17597,9 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="39">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17606,9 +17615,9 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="39">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17624,9 +17633,9 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="39">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17642,9 +17651,9 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="39">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17660,9 +17669,9 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="39">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17678,9 +17687,9 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="39">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17696,9 +17705,9 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="39">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17714,9 +17723,9 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="39">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17732,9 +17741,9 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="39">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17750,9 +17759,9 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="39">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17768,9 +17777,9 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="39">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17786,9 +17795,9 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="39">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17804,9 +17813,9 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="39">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17822,9 +17831,9 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="39">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17840,9 +17849,9 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="39">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17858,9 +17867,9 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="39">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -17876,9 +17885,9 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="39">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -17894,9 +17903,9 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="39">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -17912,9 +17921,9 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="39">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -17930,9 +17939,9 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="39">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -17948,9 +17957,9 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="39">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -17966,9 +17975,9 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="39">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -17984,9 +17993,9 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="39">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -18002,9 +18011,9 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="39">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -18020,9 +18029,9 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="39">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -18038,9 +18047,9 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="39">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -18056,9 +18065,9 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="39">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18074,9 +18083,9 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="39">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18092,9 +18101,9 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="39">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -18110,9 +18119,9 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="39">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18128,9 +18137,9 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="39">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18146,9 +18155,9 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="39">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18164,9 +18173,9 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="39">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18182,9 +18191,9 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="39">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18200,9 +18209,9 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="39">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18218,9 +18227,9 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="39">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18236,9 +18245,9 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="39">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18254,9 +18263,9 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="39">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18272,8 +18281,10 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A652" s="39"/>
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A652" s="39">
+        <v>47453</v>
+      </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
       <c r="D652" s="38"/>
@@ -18288,7 +18299,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="39"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18304,7 +18315,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="39"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18320,7 +18331,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="39"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18336,7 +18347,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="39"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18352,7 +18363,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="39"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18368,7 +18379,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="39"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18384,7 +18395,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="39"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18400,7 +18411,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="39"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18416,21 +18427,37 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A661" s="40"/>
-      <c r="B661" s="15"/>
-      <c r="C661" s="41"/>
-      <c r="D661" s="42"/>
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A661" s="39"/>
+      <c r="B661" s="20"/>
+      <c r="C661" s="13"/>
+      <c r="D661" s="38"/>
       <c r="E661" s="9"/>
-      <c r="F661" s="15"/>
+      <c r="F661" s="20"/>
       <c r="G661" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H661" s="42"/>
+      <c r="H661" s="38"/>
       <c r="I661" s="9"/>
-      <c r="J661" s="12"/>
-      <c r="K661" s="15"/>
+      <c r="J661" s="11"/>
+      <c r="K661" s="20"/>
+    </row>
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A662" s="40"/>
+      <c r="B662" s="15"/>
+      <c r="C662" s="41"/>
+      <c r="D662" s="42"/>
+      <c r="E662" s="9"/>
+      <c r="F662" s="15"/>
+      <c r="G662" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H662" s="42"/>
+      <c r="I662" s="9"/>
+      <c r="J662" s="12"/>
+      <c r="K662" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -18446,10 +18473,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18472,28 +18499,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="64" t="s">
         <v>32</v>
       </c>
@@ -18506,7 +18533,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18535,7 +18562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -18555,17 +18582,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -18586,7 +18613,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -18613,7 +18640,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -18639,7 +18666,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -18665,7 +18692,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -18691,7 +18718,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -18717,7 +18744,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -18743,7 +18770,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -18769,7 +18796,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -18795,7 +18822,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -18815,7 +18842,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -18835,7 +18862,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -18855,7 +18882,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -18876,7 +18903,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -18897,7 +18924,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -18918,7 +18945,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -18939,7 +18966,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -18960,7 +18987,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -18981,7 +19008,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -19002,7 +19029,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -19023,7 +19050,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -19044,7 +19071,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -19065,7 +19092,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -19086,7 +19113,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -19107,7 +19134,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -19128,7 +19155,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -19149,7 +19176,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -19170,7 +19197,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -19191,7 +19218,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -19212,7 +19239,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -19233,7 +19260,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -19254,7 +19281,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -19275,7 +19302,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -19284,7 +19311,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -19293,7 +19320,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -19302,7 +19329,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -19311,7 +19338,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -19320,7 +19347,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -19329,7 +19356,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -19338,7 +19365,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -19347,7 +19374,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -19356,7 +19383,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -19365,7 +19392,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -19374,7 +19401,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -19383,7 +19410,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -19392,7 +19419,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -19401,7 +19428,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -19410,7 +19437,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -19419,7 +19446,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -19428,7 +19455,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -19437,7 +19464,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -19446,7 +19473,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -19455,7 +19482,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -19464,7 +19491,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -19473,7 +19500,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -19482,7 +19509,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -19491,7 +19518,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -19500,7 +19527,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -19509,7 +19536,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -19518,7 +19545,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -19527,7 +19554,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -19536,7 +19563,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/TANEDO, MARIA EVELYN.xlsx
+++ b/REGULAR/OJT/TANEDO, MARIA EVELYN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F16371-41E4-4428-ABF9-95A7CB8CC8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="401">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1234,12 +1235,15 @@
   </si>
   <si>
     <t>12/7,14,18,23,29</t>
+  </si>
+  <si>
+    <t>SINGAPORE 8/8-10/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1953,7 +1957,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +2000,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2060,7 +2064,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2124,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,7 +2190,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2253,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2351,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2410,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2475,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,7 +2518,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2593,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,7 +2779,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2845,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2899,7 +2903,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +2969,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3021,7 +3025,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3096,7 +3100,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3139,7 +3143,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3209,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3261,7 +3265,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3340,7 +3344,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3357,26 +3361,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K662" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K662"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K662" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K662" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3683,7 +3687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3693,7 +3697,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3701,34 +3705,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K662"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A565" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A567" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K575" sqref="K575"/>
+      <selection pane="bottomLeft" activeCell="K576" sqref="K576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3751,7 +3755,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3771,7 +3775,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3793,7 +3797,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3801,7 +3805,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3814,7 +3818,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3831,7 +3835,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3866,7 +3870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3875,7 +3879,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-32.043000000000006</v>
+        <v>1.0290000000000532</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3890,7 +3894,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>68</v>
       </c>
@@ -3908,7 +3912,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>36357</v>
       </c>
@@ -3928,7 +3932,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>36373</v>
       </c>
@@ -3948,7 +3952,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>36404</v>
@@ -3969,7 +3973,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A16" si="0">EDATE(A13,1)</f>
         <v>36434</v>
@@ -3990,7 +3994,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>36465</v>
@@ -4015,7 +4019,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>36495</v>
@@ -4036,7 +4040,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>70</v>
       </c>
@@ -4054,7 +4058,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <f>EDATE(A16,1)</f>
         <v>36526</v>
@@ -4075,7 +4079,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <f>EDATE(A18,1)</f>
         <v>36557</v>
@@ -4102,7 +4106,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>55</v>
@@ -4124,7 +4128,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>71</v>
@@ -4144,7 +4148,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f>EDATE(A19,1)</f>
         <v>36586</v>
@@ -4171,7 +4175,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>69</v>
@@ -4191,7 +4195,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <f>EDATE(A22,1)</f>
         <v>36617</v>
@@ -4218,7 +4222,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>72</v>
@@ -4238,7 +4242,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <f>EDATE(A24,1)</f>
         <v>36647</v>
@@ -4265,7 +4269,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>57</v>
@@ -4287,7 +4291,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>73</v>
@@ -4307,7 +4311,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <f>EDATE(A26,1)</f>
         <v>36678</v>
@@ -4332,7 +4336,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>74</v>
@@ -4352,7 +4356,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <f>EDATE(A29,1)</f>
         <v>36708</v>
@@ -4377,7 +4381,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <f t="shared" ref="A32" si="1">EDATE(A31,1)</f>
         <v>36739</v>
@@ -4402,7 +4406,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>61</v>
@@ -4424,7 +4428,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <f>EDATE(A32,1)</f>
         <v>36770</v>
@@ -4451,7 +4455,7 @@
         <v>47386</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>47</v>
@@ -4471,7 +4475,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>73</v>
@@ -4491,7 +4495,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <f>EDATE(A34,1)</f>
         <v>36800</v>
@@ -4518,7 +4522,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>57</v>
@@ -4540,7 +4544,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>76</v>
@@ -4560,7 +4564,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <f>EDATE(A37,1)</f>
         <v>36831</v>
@@ -4585,7 +4589,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <f>EDATE(A40,1)</f>
         <v>36861</v>
@@ -4610,7 +4614,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>78</v>
       </c>
@@ -4628,7 +4632,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <f>EDATE(A41,1)</f>
         <v>36892</v>
@@ -4653,7 +4657,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <f>EDATE(A43,1)</f>
         <v>36923</v>
@@ -4674,7 +4678,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <f t="shared" ref="A45:A54" si="2">EDATE(A44,1)</f>
         <v>36951</v>
@@ -4701,7 +4705,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>61</v>
@@ -4723,7 +4727,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>79</v>
@@ -4745,7 +4749,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <f>EDATE(A45,1)</f>
         <v>36982</v>
@@ -4766,7 +4770,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <f t="shared" si="2"/>
         <v>37012</v>
@@ -4791,7 +4795,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <f t="shared" si="2"/>
         <v>37043</v>
@@ -4812,7 +4816,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <f t="shared" si="2"/>
         <v>37073</v>
@@ -4833,7 +4837,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <f t="shared" si="2"/>
         <v>37104</v>
@@ -4860,7 +4864,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <f t="shared" si="2"/>
         <v>37135</v>
@@ -4881,7 +4885,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <f t="shared" si="2"/>
         <v>37165</v>
@@ -4908,7 +4912,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>50</v>
@@ -4930,7 +4934,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <f>EDATE(A54,1)</f>
         <v>37196</v>
@@ -4951,7 +4955,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
         <f>EDATE(A56,1)</f>
         <v>37226</v>
@@ -4976,7 +4980,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="47" t="s">
         <v>81</v>
       </c>
@@ -4994,7 +4998,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <f>EDATE(A57,1)</f>
         <v>37257</v>
@@ -5021,7 +5025,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>61</v>
@@ -5043,7 +5047,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <f>EDATE(A59,1)</f>
         <v>37288</v>
@@ -5070,7 +5074,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <f t="shared" ref="A62:A75" si="3">EDATE(A61,1)</f>
         <v>37316</v>
@@ -5091,7 +5095,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <f t="shared" si="3"/>
         <v>37347</v>
@@ -5118,7 +5122,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>55</v>
@@ -5140,7 +5144,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>61</v>
@@ -5162,7 +5166,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <f>EDATE(A63,1)</f>
         <v>37377</v>
@@ -5189,7 +5193,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <f t="shared" si="3"/>
         <v>37408</v>
@@ -5210,7 +5214,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <f t="shared" si="3"/>
         <v>37438</v>
@@ -5237,7 +5241,7 @@
         <v>45132</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>61</v>
@@ -5259,7 +5263,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <f>EDATE(A68,1)</f>
         <v>37469</v>
@@ -5286,7 +5290,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>61</v>
@@ -5308,7 +5312,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <f>EDATE(A70,1)</f>
         <v>37500</v>
@@ -5335,7 +5339,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <f t="shared" si="3"/>
         <v>37530</v>
@@ -5356,7 +5360,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <f>EDATE(A73,1)</f>
         <v>37561</v>
@@ -5383,7 +5387,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <f t="shared" si="3"/>
         <v>37591</v>
@@ -5404,7 +5408,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="47" t="s">
         <v>83</v>
       </c>
@@ -5422,7 +5426,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <f>EDATE(A75,1)</f>
         <v>37622</v>
@@ -5449,7 +5453,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <f>EDATE(A77,1)</f>
         <v>37653</v>
@@ -5476,7 +5480,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <f t="shared" ref="A79:A88" si="4">EDATE(A78,1)</f>
         <v>37681</v>
@@ -5503,7 +5507,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <f t="shared" si="4"/>
         <v>37712</v>
@@ -5530,7 +5534,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <f t="shared" si="4"/>
         <v>37742</v>
@@ -5555,7 +5559,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <f t="shared" si="4"/>
         <v>37773</v>
@@ -5576,7 +5580,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
         <f t="shared" si="4"/>
         <v>37803</v>
@@ -5597,7 +5601,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <f t="shared" si="4"/>
         <v>37834</v>
@@ -5618,7 +5622,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <f t="shared" si="4"/>
         <v>37865</v>
@@ -5639,7 +5643,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <f t="shared" si="4"/>
         <v>37895</v>
@@ -5664,7 +5668,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <f t="shared" si="4"/>
         <v>37926</v>
@@ -5685,7 +5689,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <f t="shared" si="4"/>
         <v>37956</v>
@@ -5712,7 +5716,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="47" t="s">
         <v>88</v>
       </c>
@@ -5730,7 +5734,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <f>EDATE(A88,1)</f>
         <v>37987</v>
@@ -5751,7 +5755,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
         <f>EDATE(A90,1)</f>
         <v>38018</v>
@@ -5772,7 +5776,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <f t="shared" ref="A92:A102" si="5">EDATE(A91,1)</f>
         <v>38047</v>
@@ -5799,7 +5803,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <f t="shared" si="5"/>
         <v>38078</v>
@@ -5824,7 +5828,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <f t="shared" si="5"/>
         <v>38108</v>
@@ -5849,7 +5853,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <f t="shared" si="5"/>
         <v>38139</v>
@@ -5874,7 +5878,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <f>EDATE(A95,1)</f>
         <v>38169</v>
@@ -5901,7 +5905,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>92</v>
@@ -5921,7 +5925,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>47</v>
@@ -5941,7 +5945,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
         <f>EDATE(A96,1)</f>
         <v>38200</v>
@@ -5968,7 +5972,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>73</v>
@@ -5988,7 +5992,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
         <f>EDATE(A99,1)</f>
         <v>38231</v>
@@ -6013,7 +6017,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <f t="shared" si="5"/>
         <v>38261</v>
@@ -6040,7 +6044,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>50</v>
@@ -6062,7 +6066,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>94</v>
@@ -6082,7 +6086,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <f>EDATE(A102,1)</f>
         <v>38292</v>
@@ -6109,7 +6113,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>95</v>
@@ -6129,7 +6133,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <f>EDATE(A105,1)</f>
         <v>38322</v>
@@ -6156,7 +6160,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>50</v>
@@ -6178,7 +6182,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>96</v>
@@ -6198,7 +6202,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="47" t="s">
         <v>97</v>
       </c>
@@ -6216,7 +6220,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
         <f>EDATE(A107,1)</f>
         <v>38353</v>
@@ -6243,7 +6247,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>98</v>
@@ -6263,7 +6267,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <f>EDATE(A111,1)</f>
         <v>38384</v>
@@ -6290,7 +6294,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>99</v>
@@ -6310,7 +6314,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
         <f>EDATE(A113,1)</f>
         <v>38412</v>
@@ -6337,7 +6341,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>100</v>
@@ -6357,7 +6361,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23">
         <f>EDATE(A115,1)</f>
         <v>38443</v>
@@ -6384,7 +6388,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>101</v>
@@ -6408,7 +6412,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>102</v>
@@ -6428,7 +6432,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23">
         <f>EDATE(A117,1)</f>
         <v>38473</v>
@@ -6457,7 +6461,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>65</v>
@@ -6479,7 +6483,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>104</v>
@@ -6499,7 +6503,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <f>EDATE(A120,1)</f>
         <v>38504</v>
@@ -6526,7 +6530,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
         <f t="shared" ref="A124:A131" si="6">EDATE(A123,1)</f>
         <v>38534</v>
@@ -6553,7 +6557,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>47</v>
@@ -6573,7 +6577,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>106</v>
@@ -6595,7 +6599,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>107</v>
@@ -6617,7 +6621,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <f>EDATE(A124,1)</f>
         <v>38565</v>
@@ -6638,7 +6642,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <f t="shared" si="6"/>
         <v>38596</v>
@@ -6665,7 +6669,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <f t="shared" si="6"/>
         <v>38626</v>
@@ -6686,7 +6690,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
         <f t="shared" si="6"/>
         <v>38657</v>
@@ -6707,7 +6711,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23">
         <f>EDATE(A131,1)</f>
         <v>38687</v>
@@ -6728,7 +6732,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="47" t="s">
         <v>109</v>
       </c>
@@ -6746,7 +6750,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <f>EDATE(A132,1)</f>
         <v>38718</v>
@@ -6767,7 +6771,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
         <f>EDATE(A134,1)</f>
         <v>38749</v>
@@ -6788,7 +6792,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <f t="shared" ref="A136:A145" si="7">EDATE(A135,1)</f>
         <v>38777</v>
@@ -6813,7 +6817,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <f t="shared" si="7"/>
         <v>38808</v>
@@ -6834,7 +6838,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <f t="shared" si="7"/>
         <v>38838</v>
@@ -6861,7 +6865,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
         <f t="shared" si="7"/>
         <v>38869</v>
@@ -6882,7 +6886,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23">
         <f t="shared" si="7"/>
         <v>38899</v>
@@ -6903,7 +6907,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23">
         <f t="shared" si="7"/>
         <v>38930</v>
@@ -6928,7 +6932,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
         <f t="shared" si="7"/>
         <v>38961</v>
@@ -6955,7 +6959,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <f t="shared" si="7"/>
         <v>38991</v>
@@ -6976,7 +6980,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <f t="shared" si="7"/>
         <v>39022</v>
@@ -6997,7 +7001,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <f t="shared" si="7"/>
         <v>39052</v>
@@ -7022,7 +7026,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="47" t="s">
         <v>110</v>
       </c>
@@ -7040,7 +7044,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="50" t="s">
         <v>111</v>
       </c>
@@ -7062,7 +7066,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23">
         <v>39209</v>
       </c>
@@ -7088,7 +7092,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>55</v>
@@ -7110,7 +7114,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>56</v>
@@ -7132,7 +7136,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>55</v>
@@ -7154,7 +7158,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>113</v>
@@ -7174,7 +7178,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23">
         <f>EDATE(A148,1)</f>
         <v>39240</v>
@@ -7199,7 +7203,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>50</v>
@@ -7221,7 +7225,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>39270</v>
@@ -7246,7 +7250,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>47</v>
@@ -7266,7 +7270,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>47</v>
@@ -7286,7 +7290,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23">
         <f>EDATE(A155,1)</f>
         <v>39301</v>
@@ -7311,7 +7315,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <f>EDATE(A158,1)</f>
         <v>39332</v>
@@ -7338,7 +7342,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>117</v>
@@ -7358,7 +7362,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="51"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>55</v>
@@ -7380,7 +7384,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <f>EDATE(A159,1)</f>
         <v>39362</v>
@@ -7407,7 +7411,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>118</v>
@@ -7427,7 +7431,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="51"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23">
         <f>EDATE(A162,1)</f>
         <v>39393</v>
@@ -7454,7 +7458,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>119</v>
@@ -7474,7 +7478,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="51"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23">
         <f t="shared" ref="A166" si="8">EDATE(A164,1)</f>
         <v>39423</v>
@@ -7501,7 +7505,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>55</v>
@@ -7523,7 +7527,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>121</v>
@@ -7543,7 +7547,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="47" t="s">
         <v>122</v>
       </c>
@@ -7561,7 +7565,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23">
         <f>EDATE(A166,1)</f>
         <v>39454</v>
@@ -7588,7 +7592,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>47</v>
@@ -7608,7 +7612,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>55</v>
@@ -7630,7 +7634,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>55</v>
@@ -7652,7 +7656,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>55</v>
@@ -7674,7 +7678,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <f>EDATE(A170,1)</f>
         <v>39485</v>
@@ -7701,7 +7705,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>52</v>
@@ -7723,7 +7727,7 @@
         <v>44964</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <f>EDATE(A175,1)</f>
         <v>39514</v>
@@ -7750,7 +7754,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>47</v>
@@ -7770,7 +7774,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <f>EDATE(A177,1)</f>
         <v>39545</v>
@@ -7795,7 +7799,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23">
         <f t="shared" ref="A180" si="9">EDATE(A179,1)</f>
         <v>39575</v>
@@ -7822,7 +7826,7 @@
         <v>45037</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>55</v>
@@ -7844,7 +7848,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>55</v>
@@ -7866,7 +7870,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
         <f>EDATE(A180,1)</f>
         <v>39606</v>
@@ -7891,7 +7895,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>103</v>
@@ -7915,7 +7919,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>123</v>
@@ -7935,7 +7939,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
         <f>EDATE(A183,1)</f>
         <v>39636</v>
@@ -7962,7 +7966,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>124</v>
@@ -7982,7 +7986,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="51"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>57</v>
@@ -8004,7 +8008,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23">
         <f>EDATE(A186,1)</f>
         <v>39667</v>
@@ -8031,7 +8035,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>125</v>
@@ -8051,7 +8055,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23">
         <f>EDATE(A189,1)</f>
         <v>39698</v>
@@ -8076,7 +8080,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>126</v>
@@ -8100,7 +8104,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>127</v>
@@ -8120,7 +8124,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23">
         <f>EDATE(A191,1)</f>
         <v>39728</v>
@@ -8147,7 +8151,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>128</v>
@@ -8167,7 +8171,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <f>EDATE(A194,1)</f>
         <v>39759</v>
@@ -8194,7 +8198,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>55</v>
@@ -8216,7 +8220,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>52</v>
@@ -8238,7 +8242,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>129</v>
@@ -8258,7 +8262,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23">
         <f>EDATE(A196,1)</f>
         <v>39789</v>
@@ -8285,7 +8289,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>130</v>
@@ -8305,7 +8309,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="47" t="s">
         <v>131</v>
       </c>
@@ -8323,7 +8327,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23">
         <f>EDATE(A200,1)</f>
         <v>39820</v>
@@ -8350,7 +8354,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>48</v>
@@ -8370,7 +8374,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>55</v>
@@ -8392,7 +8396,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>132</v>
@@ -8412,7 +8416,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="51"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23">
         <f>EDATE(A203,1)</f>
         <v>39851</v>
@@ -8437,7 +8441,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>47</v>
@@ -8457,7 +8461,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>47</v>
@@ -8477,7 +8481,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>133</v>
@@ -8497,7 +8501,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <f>EDATE(A207,1)</f>
         <v>39879</v>
@@ -8526,7 +8530,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>134</v>
@@ -8546,7 +8550,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23">
         <f>EDATE(A211,1)</f>
         <v>39910</v>
@@ -8573,7 +8577,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>135</v>
@@ -8593,7 +8597,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23">
         <f>EDATE(A213,1)</f>
         <v>39940</v>
@@ -8620,7 +8624,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>52</v>
@@ -8642,7 +8646,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>136</v>
@@ -8662,7 +8666,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23">
         <f>EDATE(A215,1)</f>
         <v>39971</v>
@@ -8691,7 +8695,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>52</v>
@@ -8713,7 +8717,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>126</v>
@@ -8735,7 +8739,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>138</v>
@@ -8757,7 +8761,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>139</v>
@@ -8777,7 +8781,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23">
         <f>EDATE(A218,1)</f>
         <v>40001</v>
@@ -8804,7 +8808,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>140</v>
@@ -8824,7 +8828,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23">
         <f>EDATE(A223,1)</f>
         <v>40032</v>
@@ -8849,7 +8853,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>47</v>
@@ -8869,7 +8873,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>141</v>
@@ -8889,7 +8893,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <f>EDATE(A225,1)</f>
         <v>40063</v>
@@ -8916,7 +8920,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>55</v>
@@ -8938,7 +8942,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>142</v>
@@ -8958,7 +8962,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23">
         <f>EDATE(A228,1)</f>
         <v>40093</v>
@@ -8985,7 +8989,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>143</v>
@@ -9005,7 +9009,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23">
         <f>EDATE(A231,1)</f>
         <v>40124</v>
@@ -9032,7 +9036,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>55</v>
@@ -9054,7 +9058,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>145</v>
@@ -9074,7 +9078,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <f t="shared" ref="A236" si="10">EDATE(A233,1)</f>
         <v>40154</v>
@@ -9101,7 +9105,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>146</v>
@@ -9121,7 +9125,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="47" t="s">
         <v>147</v>
       </c>
@@ -9139,7 +9143,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23">
         <f>EDATE(A236,1)</f>
         <v>40185</v>
@@ -9164,7 +9168,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>148</v>
@@ -9184,7 +9188,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23">
         <f>EDATE(A239,1)</f>
         <v>40216</v>
@@ -9211,7 +9215,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>61</v>
@@ -9233,7 +9237,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>150</v>
@@ -9253,7 +9257,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23">
         <f>EDATE(A241,1)</f>
         <v>40244</v>
@@ -9280,7 +9284,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>52</v>
@@ -9302,7 +9306,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>151</v>
@@ -9322,7 +9326,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23">
         <f>EDATE(A244,1)</f>
         <v>40275</v>
@@ -9349,7 +9353,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>61</v>
@@ -9369,7 +9373,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>126</v>
@@ -9393,7 +9397,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>152</v>
@@ -9413,7 +9417,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="51"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <f>EDATE(A247,1)</f>
         <v>40305</v>
@@ -9440,7 +9444,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>65</v>
@@ -9462,7 +9466,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>153</v>
@@ -9482,7 +9486,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
         <f>EDATE(A251,1)</f>
         <v>40336</v>
@@ -9511,7 +9515,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>155</v>
@@ -9533,7 +9537,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
         <f>EDATE(A254,1)</f>
         <v>40366</v>
@@ -9560,7 +9564,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23">
         <f>EDATE(A256,1)</f>
         <v>40397</v>
@@ -9587,7 +9591,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>158</v>
@@ -9607,7 +9611,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23">
         <f>EDATE(A257,1)</f>
         <v>40428</v>
@@ -9632,7 +9636,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23">
         <f>EDATE(A259,1)</f>
         <v>40458</v>
@@ -9657,7 +9661,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23">
         <f t="shared" ref="A261" si="11">EDATE(A260,1)</f>
         <v>40489</v>
@@ -9684,7 +9688,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>161</v>
@@ -9704,7 +9708,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23">
         <f>EDATE(A261,1)</f>
         <v>40519</v>
@@ -9729,7 +9733,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="47" t="s">
         <v>163</v>
       </c>
@@ -9747,7 +9751,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23">
         <f>EDATE(A263,1)</f>
         <v>40550</v>
@@ -9772,7 +9776,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <f>EDATE(A265,1)</f>
         <v>40581</v>
@@ -9799,7 +9803,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>52</v>
@@ -9821,7 +9825,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>165</v>
@@ -9841,7 +9845,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="51"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23">
         <f>EDATE(A266,1)</f>
         <v>40609</v>
@@ -9868,7 +9872,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>55</v>
@@ -9890,7 +9894,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>47</v>
@@ -9910,7 +9914,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>166</v>
@@ -9930,7 +9934,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23">
         <f>EDATE(A269,1)</f>
         <v>40640</v>
@@ -9957,7 +9961,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>167</v>
@@ -9977,7 +9981,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23">
         <f>EDATE(A273,1)</f>
         <v>40670</v>
@@ -10002,7 +10006,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>55</v>
@@ -10024,7 +10028,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>55</v>
@@ -10046,7 +10050,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>168</v>
@@ -10066,7 +10070,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23">
         <f>EDATE(A275,1)</f>
         <v>40701</v>
@@ -10093,7 +10097,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
         <v>47</v>
@@ -10113,7 +10117,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>169</v>
@@ -10133,7 +10137,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23">
         <f>EDATE(A279,1)</f>
         <v>40731</v>
@@ -10160,7 +10164,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>170</v>
@@ -10180,7 +10184,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23">
         <f>EDATE(A282,1)</f>
         <v>40762</v>
@@ -10207,7 +10211,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>138</v>
@@ -10231,7 +10235,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>171</v>
@@ -10251,7 +10255,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23">
         <f>EDATE(A284,1)</f>
         <v>40793</v>
@@ -10278,7 +10282,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>126</v>
@@ -10300,7 +10304,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>172</v>
@@ -10320,7 +10324,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23">
         <f>EDATE(A287,1)</f>
         <v>40823</v>
@@ -10347,7 +10351,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>138</v>
@@ -10371,7 +10375,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>126</v>
@@ -10391,7 +10395,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>173</v>
@@ -10411,7 +10415,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23">
         <f t="shared" ref="A294" si="12">EDATE(A290,1)</f>
         <v>40854</v>
@@ -10438,7 +10442,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>174</v>
@@ -10458,7 +10462,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23">
         <f>EDATE(A294,1)</f>
         <v>40884</v>
@@ -10485,7 +10489,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>175</v>
@@ -10505,7 +10509,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="47" t="s">
         <v>176</v>
       </c>
@@ -10523,7 +10527,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23">
         <f>EDATE(A296,1)</f>
         <v>40915</v>
@@ -10550,7 +10554,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>103</v>
@@ -10574,7 +10578,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>177</v>
@@ -10596,7 +10600,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23">
         <f>EDATE(A299,1)</f>
         <v>40946</v>
@@ -10625,7 +10629,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>178</v>
@@ -10645,7 +10649,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23">
         <f>EDATE(A302,1)</f>
         <v>40975</v>
@@ -10674,7 +10678,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>61</v>
@@ -10696,7 +10700,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>179</v>
@@ -10716,7 +10720,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
         <f>EDATE(A304,1)</f>
         <v>41006</v>
@@ -10745,7 +10749,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>180</v>
@@ -10765,7 +10769,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23">
         <f>EDATE(A307,1)</f>
         <v>41036</v>
@@ -10792,7 +10796,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>181</v>
@@ -10812,7 +10816,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>50</v>
@@ -10834,7 +10838,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>108</v>
@@ -10856,7 +10860,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23">
         <f>EDATE(A309,1)</f>
         <v>41067</v>
@@ -10881,7 +10885,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23">
         <f t="shared" ref="A314:A319" si="13">EDATE(A313,1)</f>
         <v>41097</v>
@@ -10906,7 +10910,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>55</v>
@@ -10928,7 +10932,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>184</v>
@@ -10948,7 +10952,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23">
         <f>EDATE(A314,1)</f>
         <v>41128</v>
@@ -10973,7 +10977,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23">
         <f t="shared" si="13"/>
         <v>41159</v>
@@ -10998,7 +11002,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23">
         <f t="shared" si="13"/>
         <v>41189</v>
@@ -11025,7 +11029,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>55</v>
@@ -11047,7 +11051,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>187</v>
@@ -11067,7 +11071,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23">
         <f>EDATE(A319,1)</f>
         <v>41220</v>
@@ -11094,7 +11098,7 @@
         <v>45244</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>188</v>
@@ -11114,7 +11118,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <f>EDATE(A322,1)</f>
         <v>41250</v>
@@ -11143,7 +11147,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>189</v>
@@ -11163,7 +11167,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="47" t="s">
         <v>190</v>
       </c>
@@ -11181,7 +11185,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23">
         <f>EDATE(A324,1)</f>
         <v>41281</v>
@@ -11192,11 +11196,11 @@
       <c r="C327" s="13">
         <v>1.25</v>
       </c>
-      <c r="D327" s="38">
-        <v>1.25</v>
-      </c>
+      <c r="D327" s="38"/>
       <c r="E327" s="13"/>
-      <c r="F327" s="20"/>
+      <c r="F327" s="38">
+        <v>1.25</v>
+      </c>
       <c r="G327" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11212,17 +11216,17 @@
         <v>351</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>192</v>
       </c>
       <c r="C328" s="13"/>
-      <c r="D328" s="38">
+      <c r="D328" s="38"/>
+      <c r="E328" s="13"/>
+      <c r="F328" s="38">
         <v>0.98699999999999999</v>
       </c>
-      <c r="E328" s="13"/>
-      <c r="F328" s="20"/>
       <c r="G328" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11232,7 +11236,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23">
         <f>EDATE(A327,1)</f>
         <v>41312</v>
@@ -11243,11 +11247,11 @@
       <c r="C329" s="13">
         <v>1.25</v>
       </c>
-      <c r="D329" s="38">
+      <c r="D329" s="38"/>
+      <c r="E329" s="13"/>
+      <c r="F329" s="38">
         <v>1</v>
       </c>
-      <c r="E329" s="13"/>
-      <c r="F329" s="20"/>
       <c r="G329" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11259,17 +11263,17 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C330" s="13"/>
-      <c r="D330" s="38">
+      <c r="D330" s="38"/>
+      <c r="E330" s="13"/>
+      <c r="F330" s="38">
         <v>1.4870000000000001</v>
       </c>
-      <c r="E330" s="13"/>
-      <c r="F330" s="20"/>
       <c r="G330" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11279,7 +11283,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="51"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23">
         <f>EDATE(A329,1)</f>
         <v>41340</v>
@@ -11290,11 +11294,11 @@
       <c r="C331" s="13">
         <v>1.25</v>
       </c>
-      <c r="D331" s="38">
+      <c r="D331" s="38"/>
+      <c r="E331" s="13"/>
+      <c r="F331" s="38">
         <v>1</v>
       </c>
-      <c r="E331" s="13"/>
-      <c r="F331" s="20"/>
       <c r="G331" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11306,17 +11310,17 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C332" s="13"/>
-      <c r="D332" s="38">
+      <c r="D332" s="38"/>
+      <c r="E332" s="13"/>
+      <c r="F332" s="38">
         <v>0.75</v>
       </c>
-      <c r="E332" s="13"/>
-      <c r="F332" s="20"/>
       <c r="G332" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11326,7 +11330,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23">
         <f>EDATE(A331,1)</f>
         <v>41371</v>
@@ -11337,11 +11341,11 @@
       <c r="C333" s="13">
         <v>1.25</v>
       </c>
-      <c r="D333" s="38">
+      <c r="D333" s="38"/>
+      <c r="E333" s="13"/>
+      <c r="F333" s="38">
         <v>1</v>
       </c>
-      <c r="E333" s="13"/>
-      <c r="F333" s="20"/>
       <c r="G333" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11353,17 +11357,17 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>193</v>
       </c>
       <c r="C334" s="13"/>
-      <c r="D334" s="38">
+      <c r="D334" s="38"/>
+      <c r="E334" s="13"/>
+      <c r="F334" s="38">
         <v>2.194</v>
       </c>
-      <c r="E334" s="13"/>
-      <c r="F334" s="20"/>
       <c r="G334" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11373,7 +11377,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23">
         <f>EDATE(A333,1)</f>
         <v>41401</v>
@@ -11386,7 +11390,7 @@
       </c>
       <c r="D335" s="38"/>
       <c r="E335" s="13"/>
-      <c r="F335" s="20"/>
+      <c r="F335" s="38"/>
       <c r="G335" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11400,17 +11404,17 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
         <v>194</v>
       </c>
       <c r="C336" s="13"/>
-      <c r="D336" s="38">
+      <c r="D336" s="38"/>
+      <c r="E336" s="13"/>
+      <c r="F336" s="38">
         <v>1.304</v>
       </c>
-      <c r="E336" s="13"/>
-      <c r="F336" s="20"/>
       <c r="G336" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11420,7 +11424,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23">
         <f>EDATE(A335,1)</f>
         <v>41432</v>
@@ -11433,7 +11437,7 @@
       </c>
       <c r="D337" s="38"/>
       <c r="E337" s="13"/>
-      <c r="F337" s="20"/>
+      <c r="F337" s="38"/>
       <c r="G337" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11447,17 +11451,17 @@
         <v>352</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>150</v>
       </c>
       <c r="C338" s="13"/>
-      <c r="D338" s="38">
+      <c r="D338" s="38"/>
+      <c r="E338" s="13"/>
+      <c r="F338" s="38">
         <v>0.73699999999999999</v>
       </c>
-      <c r="E338" s="13"/>
-      <c r="F338" s="20"/>
       <c r="G338" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11467,7 +11471,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
         <f>EDATE(A337,1)</f>
         <v>41462</v>
@@ -11478,11 +11482,11 @@
       <c r="C339" s="13">
         <v>1.25</v>
       </c>
-      <c r="D339" s="38">
+      <c r="D339" s="38"/>
+      <c r="E339" s="13"/>
+      <c r="F339" s="38">
         <v>1.3460000000000001</v>
       </c>
-      <c r="E339" s="13"/>
-      <c r="F339" s="20"/>
       <c r="G339" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11492,7 +11496,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23">
         <f t="shared" ref="A340" si="14">EDATE(A339,1)</f>
         <v>41493</v>
@@ -11505,7 +11509,7 @@
       </c>
       <c r="D340" s="38"/>
       <c r="E340" s="13"/>
-      <c r="F340" s="20"/>
+      <c r="F340" s="38"/>
       <c r="G340" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11519,17 +11523,17 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
         <v>196</v>
       </c>
       <c r="C341" s="13"/>
-      <c r="D341" s="38">
+      <c r="D341" s="38"/>
+      <c r="E341" s="13"/>
+      <c r="F341" s="38">
         <v>0.72899999999999998</v>
       </c>
-      <c r="E341" s="13"/>
-      <c r="F341" s="20"/>
       <c r="G341" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11539,7 +11543,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="51"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23">
         <f>EDATE(A340,1)</f>
         <v>41524</v>
@@ -11552,7 +11556,7 @@
       </c>
       <c r="D342" s="38"/>
       <c r="E342" s="13"/>
-      <c r="F342" s="20"/>
+      <c r="F342" s="38"/>
       <c r="G342" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11566,17 +11570,17 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
         <v>197</v>
       </c>
       <c r="C343" s="13"/>
-      <c r="D343" s="38">
+      <c r="D343" s="38"/>
+      <c r="E343" s="13"/>
+      <c r="F343" s="38">
         <v>0.879</v>
       </c>
-      <c r="E343" s="13"/>
-      <c r="F343" s="20"/>
       <c r="G343" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11586,7 +11590,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="51"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23">
         <f>EDATE(A342,1)</f>
         <v>41554</v>
@@ -11597,11 +11601,11 @@
       <c r="C344" s="13">
         <v>1.25</v>
       </c>
-      <c r="D344" s="38">
+      <c r="D344" s="38"/>
+      <c r="E344" s="13"/>
+      <c r="F344" s="38">
         <v>1</v>
       </c>
-      <c r="E344" s="13"/>
-      <c r="F344" s="20"/>
       <c r="G344" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11613,7 +11617,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>50</v>
@@ -11621,7 +11625,7 @@
       <c r="C345" s="13"/>
       <c r="D345" s="38"/>
       <c r="E345" s="13"/>
-      <c r="F345" s="20"/>
+      <c r="F345" s="38"/>
       <c r="G345" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11635,17 +11639,17 @@
         <v>353</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
         <v>198</v>
       </c>
       <c r="C346" s="13"/>
-      <c r="D346" s="38">
+      <c r="D346" s="38"/>
+      <c r="E346" s="13"/>
+      <c r="F346" s="38">
         <v>0.75800000000000001</v>
       </c>
-      <c r="E346" s="13"/>
-      <c r="F346" s="20"/>
       <c r="G346" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11655,7 +11659,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23">
         <f>EDATE(A344,1)</f>
         <v>41585</v>
@@ -11668,7 +11672,7 @@
       </c>
       <c r="D347" s="38"/>
       <c r="E347" s="13"/>
-      <c r="F347" s="20"/>
+      <c r="F347" s="38"/>
       <c r="G347" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11682,7 +11686,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>183</v>
@@ -11690,7 +11694,7 @@
       <c r="C348" s="13"/>
       <c r="D348" s="38"/>
       <c r="E348" s="13"/>
-      <c r="F348" s="20"/>
+      <c r="F348" s="38"/>
       <c r="G348" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11702,17 +11706,17 @@
         <v>355</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>199</v>
       </c>
       <c r="C349" s="13"/>
-      <c r="D349" s="38">
+      <c r="D349" s="38"/>
+      <c r="E349" s="13"/>
+      <c r="F349" s="38">
         <v>0.64200000000000002</v>
       </c>
-      <c r="E349" s="13"/>
-      <c r="F349" s="20"/>
       <c r="G349" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11722,7 +11726,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23">
         <f>EDATE(A347,1)</f>
         <v>41615</v>
@@ -11735,7 +11739,7 @@
       </c>
       <c r="D350" s="38"/>
       <c r="E350" s="13"/>
-      <c r="F350" s="20"/>
+      <c r="F350" s="38"/>
       <c r="G350" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11749,17 +11753,17 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23"/>
       <c r="B351" s="20" t="s">
         <v>200</v>
       </c>
       <c r="C351" s="13"/>
-      <c r="D351" s="38">
+      <c r="D351" s="38"/>
+      <c r="E351" s="13"/>
+      <c r="F351" s="38">
         <v>0.65400000000000003</v>
       </c>
-      <c r="E351" s="13"/>
-      <c r="F351" s="20"/>
       <c r="G351" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11769,7 +11773,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="47" t="s">
         <v>201</v>
       </c>
@@ -11787,7 +11791,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23">
         <f>EDATE(A350,1)</f>
         <v>41646</v>
@@ -11814,17 +11818,17 @@
         <v>356</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C354" s="13"/>
-      <c r="D354" s="38">
+      <c r="D354" s="38"/>
+      <c r="E354" s="13"/>
+      <c r="F354" s="38">
         <v>1</v>
       </c>
-      <c r="E354" s="13"/>
-      <c r="F354" s="20"/>
       <c r="G354" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11836,17 +11840,17 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>202</v>
       </c>
       <c r="C355" s="13"/>
-      <c r="D355" s="38">
+      <c r="D355" s="38"/>
+      <c r="E355" s="13"/>
+      <c r="F355" s="38">
         <v>1.208</v>
       </c>
-      <c r="E355" s="13"/>
-      <c r="F355" s="20"/>
       <c r="G355" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11856,7 +11860,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <f>EDATE(A353,1)</f>
         <v>41677</v>
@@ -11869,7 +11873,7 @@
       </c>
       <c r="D356" s="38"/>
       <c r="E356" s="13"/>
-      <c r="F356" s="20"/>
+      <c r="F356" s="38"/>
       <c r="G356" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11883,17 +11887,17 @@
         <v>357</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>144</v>
       </c>
       <c r="C357" s="13"/>
-      <c r="D357" s="38">
+      <c r="D357" s="38"/>
+      <c r="E357" s="13"/>
+      <c r="F357" s="38">
         <v>1</v>
       </c>
-      <c r="E357" s="13"/>
-      <c r="F357" s="20"/>
       <c r="G357" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11905,7 +11909,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>55</v>
@@ -11913,7 +11917,7 @@
       <c r="C358" s="13"/>
       <c r="D358" s="38"/>
       <c r="E358" s="13"/>
-      <c r="F358" s="20"/>
+      <c r="F358" s="38"/>
       <c r="G358" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11927,17 +11931,17 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>144</v>
       </c>
       <c r="C359" s="13"/>
-      <c r="D359" s="38">
+      <c r="D359" s="38"/>
+      <c r="E359" s="13"/>
+      <c r="F359" s="38">
         <v>1</v>
       </c>
-      <c r="E359" s="13"/>
-      <c r="F359" s="20"/>
       <c r="G359" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11949,17 +11953,17 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>203</v>
       </c>
       <c r="C360" s="13"/>
-      <c r="D360" s="38">
+      <c r="D360" s="38"/>
+      <c r="E360" s="13"/>
+      <c r="F360" s="38">
         <v>1.7349999999999999</v>
       </c>
-      <c r="E360" s="13"/>
-      <c r="F360" s="20"/>
       <c r="G360" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11969,7 +11973,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
         <f>EDATE(A356,1)</f>
         <v>41705</v>
@@ -11980,11 +11984,11 @@
       <c r="C361" s="13">
         <v>1.25</v>
       </c>
-      <c r="D361" s="38">
+      <c r="D361" s="38"/>
+      <c r="E361" s="13"/>
+      <c r="F361" s="38">
         <v>0.97299999999999998</v>
       </c>
-      <c r="E361" s="13"/>
-      <c r="F361" s="20"/>
       <c r="G361" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11994,7 +11998,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23">
         <f t="shared" ref="A362:A363" si="15">EDATE(A361,1)</f>
         <v>41736</v>
@@ -12005,11 +12009,11 @@
       <c r="C362" s="13">
         <v>1.25</v>
       </c>
-      <c r="D362" s="38">
+      <c r="D362" s="38"/>
+      <c r="E362" s="13"/>
+      <c r="F362" s="38">
         <v>1.0329999999999999</v>
       </c>
-      <c r="E362" s="13"/>
-      <c r="F362" s="20"/>
       <c r="G362" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12019,7 +12023,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23">
         <f t="shared" si="15"/>
         <v>41766</v>
@@ -12030,11 +12034,11 @@
       <c r="C363" s="13">
         <v>1.25</v>
       </c>
-      <c r="D363" s="38">
+      <c r="D363" s="38"/>
+      <c r="E363" s="13"/>
+      <c r="F363" s="38">
         <v>1</v>
       </c>
-      <c r="E363" s="13"/>
-      <c r="F363" s="20"/>
       <c r="G363" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12046,17 +12050,17 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>206</v>
       </c>
       <c r="C364" s="13"/>
-      <c r="D364" s="38">
+      <c r="D364" s="38"/>
+      <c r="E364" s="13"/>
+      <c r="F364" s="38">
         <v>2.1349999999999998</v>
       </c>
-      <c r="E364" s="13"/>
-      <c r="F364" s="20"/>
       <c r="G364" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -12066,7 +12070,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23">
         <f>EDATE(A363,1)</f>
         <v>41797</v>
@@ -12077,11 +12081,11 @@
       <c r="C365" s="13">
         <v>1.25</v>
       </c>
-      <c r="D365" s="38">
+      <c r="D365" s="38"/>
+      <c r="E365" s="13"/>
+      <c r="F365" s="38">
         <v>6</v>
       </c>
-      <c r="E365" s="13"/>
-      <c r="F365" s="20"/>
       <c r="G365" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12093,7 +12097,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
         <v>55</v>
@@ -12101,7 +12105,7 @@
       <c r="C366" s="13"/>
       <c r="D366" s="38"/>
       <c r="E366" s="13"/>
-      <c r="F366" s="20"/>
+      <c r="F366" s="38"/>
       <c r="G366" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -12115,17 +12119,17 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>208</v>
       </c>
       <c r="C367" s="13"/>
-      <c r="D367" s="38">
+      <c r="D367" s="38"/>
+      <c r="E367" s="13"/>
+      <c r="F367" s="38">
         <v>1.2709999999999999</v>
       </c>
-      <c r="E367" s="13"/>
-      <c r="F367" s="20"/>
       <c r="G367" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -12135,7 +12139,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23">
         <f>EDATE(A365,1)</f>
         <v>41827</v>
@@ -12162,7 +12166,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>61</v>
@@ -12184,7 +12188,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>47</v>
@@ -12204,7 +12208,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>209</v>
@@ -12224,7 +12228,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23">
         <f>EDATE(A368,1)</f>
         <v>41858</v>
@@ -12251,7 +12255,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>210</v>
@@ -12271,7 +12275,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23">
         <f>EDATE(A372,1)</f>
         <v>41889</v>
@@ -12296,7 +12300,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
         <v>101</v>
@@ -12320,7 +12324,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>211</v>
@@ -12340,7 +12344,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23">
         <f>EDATE(A374,1)</f>
         <v>41919</v>
@@ -12367,7 +12371,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>212</v>
@@ -12387,7 +12391,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <f>EDATE(A377,1)</f>
         <v>41950</v>
@@ -12414,7 +12418,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
         <v>103</v>
@@ -12438,7 +12442,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>48</v>
@@ -12458,7 +12462,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>213</v>
@@ -12478,7 +12482,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23">
         <f>EDATE(A379,1)</f>
         <v>41980</v>
@@ -12503,7 +12507,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="47" t="s">
         <v>215</v>
       </c>
@@ -12521,7 +12525,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23">
         <f>EDATE(A383,1)</f>
         <v>42011</v>
@@ -12548,7 +12552,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23"/>
       <c r="B386" s="20" t="s">
         <v>55</v>
@@ -12570,7 +12574,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
         <v>216</v>
@@ -12590,7 +12594,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23">
         <f>EDATE(A385,1)</f>
         <v>42042</v>
@@ -12617,7 +12621,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>55</v>
@@ -12639,7 +12643,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>217</v>
@@ -12659,7 +12663,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23">
         <f>EDATE(A388,1)</f>
         <v>42070</v>
@@ -12686,7 +12690,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>218</v>
@@ -12706,7 +12710,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23">
         <f>EDATE(A391,1)</f>
         <v>42101</v>
@@ -12731,7 +12735,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23"/>
       <c r="B394" s="20" t="s">
         <v>219</v>
@@ -12751,7 +12755,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23">
         <f>EDATE(A393,1)</f>
         <v>42131</v>
@@ -12778,7 +12782,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>220</v>
@@ -12798,7 +12802,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23">
         <f>EDATE(A395,1)</f>
         <v>42162</v>
@@ -12825,7 +12829,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>55</v>
@@ -12847,7 +12851,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>221</v>
@@ -12867,7 +12871,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23">
         <f>EDATE(A397,1)</f>
         <v>42192</v>
@@ -12896,7 +12900,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>222</v>
@@ -12916,7 +12920,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23">
         <f>EDATE(A400,1)</f>
         <v>42223</v>
@@ -12945,7 +12949,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>50</v>
@@ -12967,7 +12971,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>223</v>
@@ -12987,7 +12991,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23">
         <f>EDATE(A402,1)</f>
         <v>42254</v>
@@ -13012,7 +13016,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23">
         <f t="shared" ref="A406:A407" si="16">EDATE(A405,1)</f>
         <v>42284</v>
@@ -13037,7 +13041,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23">
         <f t="shared" si="16"/>
         <v>42315</v>
@@ -13064,7 +13068,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
         <v>226</v>
@@ -13084,7 +13088,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23">
         <f>EDATE(A407,1)</f>
         <v>42345</v>
@@ -13111,7 +13115,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="47"/>
       <c r="B410" s="20" t="s">
         <v>227</v>
@@ -13131,7 +13135,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="47" t="s">
         <v>228</v>
       </c>
@@ -13149,7 +13153,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23">
         <f>EDATE(A409,1)</f>
         <v>42376</v>
@@ -13174,7 +13178,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23">
         <f>EDATE(A412,1)</f>
         <v>42407</v>
@@ -13201,7 +13205,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
         <v>56</v>
@@ -13223,7 +13227,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>230</v>
@@ -13245,7 +13249,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="23"/>
       <c r="B416" s="20" t="s">
         <v>231</v>
@@ -13265,7 +13269,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="23">
         <f>EDATE(A413,1)</f>
         <v>42436</v>
@@ -13290,7 +13294,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="23">
         <f t="shared" ref="A418:A432" si="17">EDATE(A417,1)</f>
         <v>42467</v>
@@ -13315,7 +13319,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23"/>
       <c r="B419" s="20" t="s">
         <v>50</v>
@@ -13337,7 +13341,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>233</v>
@@ -13357,7 +13361,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23">
         <f>EDATE(A418,1)</f>
         <v>42497</v>
@@ -13382,7 +13386,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="23">
         <f t="shared" si="17"/>
         <v>42528</v>
@@ -13411,7 +13415,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="23"/>
       <c r="B423" s="20" t="s">
         <v>235</v>
@@ -13431,7 +13435,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="23">
         <f>EDATE(A422,1)</f>
         <v>42558</v>
@@ -13458,7 +13462,7 @@
         <v>45132</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>236</v>
@@ -13478,7 +13482,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="23">
         <f>EDATE(A424,1)</f>
         <v>42589</v>
@@ -13503,7 +13507,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
         <v>237</v>
@@ -13523,7 +13527,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="23">
         <f>EDATE(A426,1)</f>
         <v>42620</v>
@@ -13550,7 +13554,7 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>55</v>
@@ -13572,7 +13576,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="23"/>
       <c r="B430" s="20" t="s">
         <v>238</v>
@@ -13592,7 +13596,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="23">
         <f>EDATE(A428,1)</f>
         <v>42650</v>
@@ -13617,7 +13621,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23">
         <f t="shared" si="17"/>
         <v>42681</v>
@@ -13642,7 +13646,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="23">
         <f>EDATE(A432,1)</f>
         <v>42711</v>
@@ -13669,7 +13673,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="47"/>
       <c r="B434" s="20" t="s">
         <v>48</v>
@@ -13689,7 +13693,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="47"/>
       <c r="B435" s="20" t="s">
         <v>74</v>
@@ -13709,7 +13713,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="47" t="s">
         <v>241</v>
       </c>
@@ -13727,7 +13731,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="23">
         <f>EDATE(A433,1)</f>
         <v>42742</v>
@@ -13754,7 +13758,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="23" t="s">
         <v>242</v>
       </c>
@@ -13776,7 +13780,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="23">
         <f>EDATE(A437,1)</f>
         <v>42773</v>
@@ -13803,7 +13807,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="23"/>
       <c r="B440" s="20" t="s">
         <v>243</v>
@@ -13823,7 +13827,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="23">
         <f>EDATE(A439,1)</f>
         <v>42801</v>
@@ -13850,7 +13854,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>47</v>
@@ -13870,7 +13874,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="23"/>
       <c r="B443" s="20" t="s">
         <v>244</v>
@@ -13890,7 +13894,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="23">
         <f>EDATE(A441,1)</f>
         <v>42832</v>
@@ -13917,7 +13921,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="23"/>
       <c r="B445" s="20" t="s">
         <v>48</v>
@@ -13937,7 +13941,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="23"/>
       <c r="B446" s="20" t="s">
         <v>55</v>
@@ -13959,7 +13963,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="23"/>
       <c r="B447" s="20" t="s">
         <v>245</v>
@@ -13979,7 +13983,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>55</v>
@@ -14001,7 +14005,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="23">
         <f>EDATE(A444,1)</f>
         <v>42862</v>
@@ -14026,7 +14030,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="23">
         <f t="shared" ref="A450:A459" si="18">EDATE(A449,1)</f>
         <v>42893</v>
@@ -14051,7 +14055,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="23">
         <f t="shared" si="18"/>
         <v>42923</v>
@@ -14078,7 +14082,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="23"/>
       <c r="B452" s="20" t="s">
         <v>47</v>
@@ -14098,7 +14102,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>55</v>
@@ -14120,7 +14124,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="23"/>
       <c r="B454" s="20" t="s">
         <v>52</v>
@@ -14142,7 +14146,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="23"/>
       <c r="B455" s="20" t="s">
         <v>52</v>
@@ -14164,7 +14168,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
         <v>247</v>
@@ -14184,7 +14188,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="23">
         <f>EDATE(A451,1)</f>
         <v>42954</v>
@@ -14209,7 +14213,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="23">
         <f t="shared" si="18"/>
         <v>42985</v>
@@ -14230,7 +14234,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="23">
         <f t="shared" si="18"/>
         <v>43015</v>
@@ -14257,7 +14261,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="23"/>
       <c r="B460" s="20" t="s">
         <v>55</v>
@@ -14279,7 +14283,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="23"/>
       <c r="B461" s="20" t="s">
         <v>184</v>
@@ -14299,7 +14303,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="23">
         <f>EDATE(A459,1)</f>
         <v>43046</v>
@@ -14320,7 +14324,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="23">
         <f>EDATE(A462,1)</f>
         <v>43076</v>
@@ -14347,7 +14351,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="47"/>
       <c r="B464" s="20" t="s">
         <v>126</v>
@@ -14371,7 +14375,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="47" t="s">
         <v>249</v>
       </c>
@@ -14389,7 +14393,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="23">
         <f>EDATE(A463,1)</f>
         <v>43107</v>
@@ -14414,7 +14418,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
         <v>55</v>
@@ -14436,7 +14440,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>250</v>
@@ -14458,7 +14462,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="23">
         <f>EDATE(A466,1)</f>
         <v>43138</v>
@@ -14483,7 +14487,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="23">
         <f t="shared" ref="A470:A485" si="19">EDATE(A469,1)</f>
         <v>43166</v>
@@ -14504,7 +14508,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="23">
         <f t="shared" si="19"/>
         <v>43197</v>
@@ -14525,7 +14529,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="23">
         <f t="shared" si="19"/>
         <v>43227</v>
@@ -14550,7 +14554,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="23">
         <f t="shared" si="19"/>
         <v>43258</v>
@@ -14575,7 +14579,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="23">
         <f t="shared" si="19"/>
         <v>43288</v>
@@ -14602,7 +14606,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="23"/>
       <c r="B475" s="20" t="s">
         <v>99</v>
@@ -14622,7 +14626,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="23">
         <f>EDATE(A474,1)</f>
         <v>43319</v>
@@ -14649,7 +14653,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="23"/>
       <c r="B477" s="20" t="s">
         <v>47</v>
@@ -14669,7 +14673,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="23"/>
       <c r="B478" s="20" t="s">
         <v>253</v>
@@ -14689,7 +14693,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="23">
         <f>EDATE(A476,1)</f>
         <v>43350</v>
@@ -14716,7 +14720,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="23"/>
       <c r="B480" s="20" t="s">
         <v>55</v>
@@ -14738,7 +14742,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="23"/>
       <c r="B481" s="20" t="s">
         <v>254</v>
@@ -14758,7 +14762,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="23">
         <f>EDATE(A479,1)</f>
         <v>43380</v>
@@ -14783,7 +14787,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="23"/>
       <c r="B483" s="20" t="s">
         <v>255</v>
@@ -14803,7 +14807,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="23">
         <f>EDATE(A482,1)</f>
         <v>43411</v>
@@ -14828,7 +14832,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="23">
         <f t="shared" si="19"/>
         <v>43441</v>
@@ -14853,7 +14857,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="47" t="s">
         <v>258</v>
       </c>
@@ -14871,7 +14875,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="23">
         <f>EDATE(A485,1)</f>
         <v>43472</v>
@@ -14896,7 +14900,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="23"/>
       <c r="B488" s="20" t="s">
         <v>55</v>
@@ -14918,7 +14922,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="23"/>
       <c r="B489" s="20" t="s">
         <v>259</v>
@@ -14938,7 +14942,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="23">
         <f>EDATE(A487,1)</f>
         <v>43503</v>
@@ -14965,7 +14969,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="23"/>
       <c r="B491" s="20" t="s">
         <v>74</v>
@@ -14985,7 +14989,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="23">
         <f>EDATE(A490,1)</f>
         <v>43531</v>
@@ -15010,7 +15014,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="23">
         <f t="shared" ref="A493:A508" si="20">EDATE(A492,1)</f>
         <v>43562</v>
@@ -15035,7 +15039,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="23"/>
       <c r="B494" s="20" t="s">
         <v>55</v>
@@ -15057,7 +15061,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="23"/>
       <c r="B495" s="20" t="s">
         <v>52</v>
@@ -15079,7 +15083,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="23"/>
       <c r="B496" s="20" t="s">
         <v>55</v>
@@ -15101,7 +15105,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="23"/>
       <c r="B497" s="20" t="s">
         <v>260</v>
@@ -15121,7 +15125,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="23">
         <f>EDATE(A493,1)</f>
         <v>43592</v>
@@ -15148,7 +15152,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="23"/>
       <c r="B499" s="20" t="s">
         <v>61</v>
@@ -15170,7 +15174,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="23"/>
       <c r="B500" s="20" t="s">
         <v>261</v>
@@ -15190,7 +15194,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="23">
         <f>EDATE(A498,1)</f>
         <v>43623</v>
@@ -15215,7 +15219,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="23"/>
       <c r="B502" s="20" t="s">
         <v>262</v>
@@ -15235,7 +15239,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="23">
         <f>EDATE(A501,1)</f>
         <v>43653</v>
@@ -15262,7 +15266,7 @@
         <v>45130</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="23"/>
       <c r="B504" s="20" t="s">
         <v>55</v>
@@ -15284,7 +15288,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="23"/>
       <c r="B505" s="20" t="s">
         <v>55</v>
@@ -15306,7 +15310,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="23"/>
       <c r="B506" s="20" t="s">
         <v>263</v>
@@ -15326,7 +15330,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="51"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="23">
         <f>EDATE(A503,1)</f>
         <v>43684</v>
@@ -15351,7 +15355,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="23">
         <f t="shared" si="20"/>
         <v>43715</v>
@@ -15378,7 +15382,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="23"/>
       <c r="B509" s="20" t="s">
         <v>151</v>
@@ -15398,7 +15402,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="23">
         <f>EDATE(A508,1)</f>
         <v>43745</v>
@@ -15425,7 +15429,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="23"/>
       <c r="B511" s="20" t="s">
         <v>55</v>
@@ -15447,7 +15451,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="23"/>
       <c r="B512" s="20" t="s">
         <v>52</v>
@@ -15469,7 +15473,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="23"/>
       <c r="B513" s="20" t="s">
         <v>55</v>
@@ -15491,7 +15495,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="23"/>
       <c r="B514" s="20" t="s">
         <v>210</v>
@@ -15511,7 +15515,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="23">
         <f>EDATE(A510,1)</f>
         <v>43776</v>
@@ -15538,7 +15542,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="23"/>
       <c r="B516" s="20" t="s">
         <v>52</v>
@@ -15560,7 +15564,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="23"/>
       <c r="B517" s="20" t="s">
         <v>265</v>
@@ -15580,7 +15584,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="23">
         <f>EDATE(A515,1)</f>
         <v>43806</v>
@@ -15607,7 +15611,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="47" t="s">
         <v>266</v>
       </c>
@@ -15625,7 +15629,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="23">
         <f>EDATE(A518,1)</f>
         <v>43837</v>
@@ -15652,7 +15656,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="23"/>
       <c r="B521" s="20" t="s">
         <v>267</v>
@@ -15672,7 +15676,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="23">
         <f>EDATE(A520,1)</f>
         <v>43868</v>
@@ -15695,7 +15699,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="23">
         <f t="shared" ref="A523:A533" si="21">EDATE(A522,1)</f>
         <v>43897</v>
@@ -15716,7 +15720,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="23">
         <f t="shared" si="21"/>
         <v>43928</v>
@@ -15737,7 +15741,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="23">
         <f t="shared" si="21"/>
         <v>43958</v>
@@ -15758,7 +15762,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="23">
         <f t="shared" si="21"/>
         <v>43989</v>
@@ -15779,7 +15783,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="23">
         <f t="shared" si="21"/>
         <v>44019</v>
@@ -15800,7 +15804,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="23">
         <f t="shared" si="21"/>
         <v>44050</v>
@@ -15821,7 +15825,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="23">
         <f t="shared" si="21"/>
         <v>44081</v>
@@ -15848,7 +15852,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="23"/>
       <c r="B530" s="20" t="s">
         <v>48</v>
@@ -15868,7 +15872,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="23">
         <f>EDATE(A529,1)</f>
         <v>44111</v>
@@ -15893,7 +15897,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="23">
         <f t="shared" si="21"/>
         <v>44142</v>
@@ -15914,7 +15918,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="23">
         <f t="shared" si="21"/>
         <v>44172</v>
@@ -15941,7 +15945,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="47" t="s">
         <v>45</v>
       </c>
@@ -15959,7 +15963,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="39">
         <v>44197</v>
       </c>
@@ -15983,7 +15987,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="39">
         <v>44228</v>
       </c>
@@ -16007,7 +16011,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="39"/>
       <c r="B537" s="20" t="s">
         <v>50</v>
@@ -16029,7 +16033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="39">
         <v>44256</v>
       </c>
@@ -16049,7 +16053,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="39">
         <v>44287</v>
       </c>
@@ -16075,7 +16079,7 @@
         <v>44326</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="39">
         <v>44317</v>
       </c>
@@ -16095,7 +16099,7 @@
       <c r="J540" s="12"/>
       <c r="K540" s="15"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="39">
         <v>44348</v>
       </c>
@@ -16115,7 +16119,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="39">
         <v>44378</v>
       </c>
@@ -16141,7 +16145,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="39">
         <v>44409</v>
       </c>
@@ -16161,7 +16165,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="39">
         <v>44440</v>
       </c>
@@ -16181,7 +16185,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="39">
         <v>44470</v>
       </c>
@@ -16207,7 +16211,7 @@
         <v>44493</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="39">
         <v>44501</v>
       </c>
@@ -16233,7 +16237,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="39">
         <v>44531</v>
       </c>
@@ -16259,7 +16263,7 @@
         <v>44545</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="47" t="s">
         <v>46</v>
       </c>
@@ -16277,7 +16281,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="39">
         <v>44562</v>
       </c>
@@ -16303,7 +16307,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="39">
         <v>44593</v>
       </c>
@@ -16329,7 +16333,7 @@
         <v>44610</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="39">
         <v>44621</v>
       </c>
@@ -16353,7 +16357,7 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="39">
         <v>44652</v>
       </c>
@@ -16379,7 +16383,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="39">
         <v>44682</v>
       </c>
@@ -16403,7 +16407,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="39">
         <v>44713</v>
       </c>
@@ -16429,7 +16433,7 @@
         <v>44739</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="39">
         <v>44743</v>
       </c>
@@ -16455,7 +16459,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="39"/>
       <c r="B556" s="20" t="s">
         <v>61</v>
@@ -16477,7 +16481,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="39">
         <v>44774</v>
       </c>
@@ -16503,7 +16507,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="39">
         <v>44805</v>
       </c>
@@ -16529,7 +16533,7 @@
         <v>44809</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="39"/>
       <c r="B559" s="20" t="s">
         <v>55</v>
@@ -16551,7 +16555,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="39">
         <v>44835</v>
       </c>
@@ -16571,7 +16575,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="39">
         <v>44866</v>
       </c>
@@ -16597,7 +16601,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="39"/>
       <c r="B562" s="20" t="s">
         <v>61</v>
@@ -16619,7 +16623,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="39">
         <v>44896</v>
       </c>
@@ -16645,7 +16649,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="47" t="s">
         <v>67</v>
       </c>
@@ -16663,7 +16667,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="39">
         <v>44927</v>
       </c>
@@ -16689,7 +16693,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="39">
         <v>44958</v>
       </c>
@@ -16715,7 +16719,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="39"/>
       <c r="B567" s="20" t="s">
         <v>47</v>
@@ -16735,7 +16739,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="39">
         <v>44986</v>
       </c>
@@ -16759,7 +16763,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="39">
         <v>45017</v>
       </c>
@@ -16779,7 +16783,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="39">
         <v>45047</v>
       </c>
@@ -16805,7 +16809,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="39"/>
       <c r="B571" s="20" t="s">
         <v>52</v>
@@ -16827,7 +16831,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="39"/>
       <c r="B572" s="20" t="s">
         <v>55</v>
@@ -16849,7 +16853,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="39">
         <v>45078</v>
       </c>
@@ -16873,7 +16877,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="39"/>
       <c r="B574" s="20" t="s">
         <v>55</v>
@@ -16895,13 +16899,17 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="39">
         <v>45108</v>
       </c>
-      <c r="B575" s="20"/>
+      <c r="B575" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C575" s="13"/>
-      <c r="D575" s="38"/>
+      <c r="D575" s="38">
+        <v>3</v>
+      </c>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
       <c r="G575" s="13" t="str">
@@ -16911,9 +16919,11 @@
       <c r="H575" s="38"/>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
-      <c r="K575" s="20"/>
-    </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K575" s="20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="39">
         <v>45139</v>
       </c>
@@ -16931,7 +16941,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="39">
         <v>45170</v>
       </c>
@@ -16949,7 +16959,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="39">
         <v>45200</v>
       </c>
@@ -16967,7 +16977,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="39">
         <v>45231</v>
       </c>
@@ -16985,7 +16995,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="39">
         <v>45261</v>
       </c>
@@ -17003,7 +17013,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="39">
         <v>45292</v>
       </c>
@@ -17021,7 +17031,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="39">
         <v>45323</v>
       </c>
@@ -17039,7 +17049,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="39">
         <v>45352</v>
       </c>
@@ -17057,7 +17067,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="39">
         <v>45383</v>
       </c>
@@ -17075,7 +17085,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="39">
         <v>45413</v>
       </c>
@@ -17093,7 +17103,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="39">
         <v>45444</v>
       </c>
@@ -17111,7 +17121,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="39">
         <v>45474</v>
       </c>
@@ -17129,7 +17139,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="39">
         <v>45505</v>
       </c>
@@ -17147,7 +17157,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="39">
         <v>45536</v>
       </c>
@@ -17165,7 +17175,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="39">
         <v>45566</v>
       </c>
@@ -17183,7 +17193,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="39">
         <v>45597</v>
       </c>
@@ -17201,7 +17211,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="39">
         <v>45627</v>
       </c>
@@ -17219,7 +17229,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="39">
         <v>45658</v>
       </c>
@@ -17237,7 +17247,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="39">
         <v>45689</v>
       </c>
@@ -17255,7 +17265,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="39">
         <v>45717</v>
       </c>
@@ -17273,7 +17283,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="39">
         <v>45748</v>
       </c>
@@ -17291,7 +17301,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="39">
         <v>45778</v>
       </c>
@@ -17309,7 +17319,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="39">
         <v>45809</v>
       </c>
@@ -17327,7 +17337,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="39">
         <v>45839</v>
       </c>
@@ -17345,7 +17355,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="39">
         <v>45870</v>
       </c>
@@ -17363,7 +17373,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="39">
         <v>45901</v>
       </c>
@@ -17381,7 +17391,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="39">
         <v>45931</v>
       </c>
@@ -17399,7 +17409,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="39">
         <v>45962</v>
       </c>
@@ -17417,7 +17427,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="39">
         <v>45992</v>
       </c>
@@ -17435,7 +17445,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="39">
         <v>46023</v>
       </c>
@@ -17453,7 +17463,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="39">
         <v>46054</v>
       </c>
@@ -17471,7 +17481,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="39">
         <v>46082</v>
       </c>
@@ -17489,7 +17499,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="39">
         <v>46113</v>
       </c>
@@ -17507,7 +17517,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="39">
         <v>46143</v>
       </c>
@@ -17525,7 +17535,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="39">
         <v>46174</v>
       </c>
@@ -17543,7 +17553,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="39">
         <v>46204</v>
       </c>
@@ -17561,7 +17571,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="39">
         <v>46235</v>
       </c>
@@ -17579,7 +17589,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="39">
         <v>46266</v>
       </c>
@@ -17597,7 +17607,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="39">
         <v>46296</v>
       </c>
@@ -17615,7 +17625,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="39">
         <v>46327</v>
       </c>
@@ -17633,7 +17643,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="39">
         <v>46357</v>
       </c>
@@ -17651,7 +17661,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="39">
         <v>46388</v>
       </c>
@@ -17669,7 +17679,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="39">
         <v>46419</v>
       </c>
@@ -17687,7 +17697,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="39">
         <v>46447</v>
       </c>
@@ -17705,7 +17715,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="39">
         <v>46478</v>
       </c>
@@ -17723,7 +17733,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="39">
         <v>46508</v>
       </c>
@@ -17741,7 +17751,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="39">
         <v>46539</v>
       </c>
@@ -17759,7 +17769,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="39">
         <v>46569</v>
       </c>
@@ -17777,7 +17787,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="39">
         <v>46600</v>
       </c>
@@ -17795,7 +17805,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="39">
         <v>46631</v>
       </c>
@@ -17813,7 +17823,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="39">
         <v>46661</v>
       </c>
@@ -17831,7 +17841,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="39">
         <v>46692</v>
       </c>
@@ -17849,7 +17859,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="39">
         <v>46722</v>
       </c>
@@ -17867,7 +17877,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="39">
         <v>46753</v>
       </c>
@@ -17885,7 +17895,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="39">
         <v>46784</v>
       </c>
@@ -17903,7 +17913,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="39">
         <v>46813</v>
       </c>
@@ -17921,7 +17931,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="39">
         <v>46844</v>
       </c>
@@ -17939,7 +17949,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="39">
         <v>46874</v>
       </c>
@@ -17957,7 +17967,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="39">
         <v>46905</v>
       </c>
@@ -17975,7 +17985,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="39">
         <v>46935</v>
       </c>
@@ -17993,7 +18003,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="39">
         <v>46966</v>
       </c>
@@ -18011,7 +18021,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="39">
         <v>46997</v>
       </c>
@@ -18029,7 +18039,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="39">
         <v>47027</v>
       </c>
@@ -18047,7 +18057,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="39">
         <v>47058</v>
       </c>
@@ -18065,7 +18075,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="39">
         <v>47088</v>
       </c>
@@ -18083,7 +18093,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="39">
         <v>47119</v>
       </c>
@@ -18101,7 +18111,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="39">
         <v>47150</v>
       </c>
@@ -18119,7 +18129,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="39">
         <v>47178</v>
       </c>
@@ -18137,7 +18147,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="39">
         <v>47209</v>
       </c>
@@ -18155,7 +18165,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="39">
         <v>47239</v>
       </c>
@@ -18173,7 +18183,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="39">
         <v>47270</v>
       </c>
@@ -18191,7 +18201,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="39">
         <v>47300</v>
       </c>
@@ -18209,7 +18219,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="39">
         <v>47331</v>
       </c>
@@ -18227,7 +18237,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="39">
         <v>47362</v>
       </c>
@@ -18245,7 +18255,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="39">
         <v>47392</v>
       </c>
@@ -18263,7 +18273,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="39">
         <v>47423</v>
       </c>
@@ -18281,7 +18291,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="39">
         <v>47453</v>
       </c>
@@ -18299,7 +18309,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="39"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18315,7 +18325,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="39"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18331,7 +18341,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="39"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18347,7 +18357,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="39"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18363,7 +18373,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="39"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18379,7 +18389,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="39"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18395,7 +18405,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="39"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18411,7 +18421,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="39"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18427,7 +18437,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="39"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18443,7 +18453,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="15"/>
       <c r="C662" s="41"/>
@@ -18473,10 +18483,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18499,28 +18509,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="64" t="s">
         <v>32</v>
       </c>
@@ -18533,7 +18543,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18562,7 +18572,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -18582,17 +18592,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -18613,7 +18623,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -18640,7 +18650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -18666,7 +18676,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -18692,7 +18702,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -18718,7 +18728,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -18744,7 +18754,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -18770,7 +18780,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -18796,7 +18806,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -18822,7 +18832,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -18842,7 +18852,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -18862,7 +18872,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -18882,7 +18892,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -18903,7 +18913,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -18924,7 +18934,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -18945,7 +18955,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -18966,7 +18976,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -18987,7 +18997,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -19008,7 +19018,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -19029,7 +19039,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -19050,7 +19060,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -19071,7 +19081,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -19092,7 +19102,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -19113,7 +19123,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -19134,7 +19144,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -19155,7 +19165,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -19176,7 +19186,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -19197,7 +19207,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -19218,7 +19228,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -19239,7 +19249,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -19260,7 +19270,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -19281,7 +19291,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -19302,7 +19312,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -19311,7 +19321,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -19320,7 +19330,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -19329,7 +19339,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -19338,7 +19348,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -19347,7 +19357,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -19356,7 +19366,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -19365,7 +19375,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -19374,7 +19384,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -19383,7 +19393,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -19392,7 +19402,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -19401,7 +19411,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -19410,7 +19420,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -19419,7 +19429,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -19428,7 +19438,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -19437,7 +19447,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -19446,7 +19456,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -19455,7 +19465,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -19464,7 +19474,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -19473,7 +19483,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -19482,7 +19492,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -19491,7 +19501,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -19500,7 +19510,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -19509,7 +19519,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -19518,7 +19528,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -19527,7 +19537,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -19536,7 +19546,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -19545,7 +19555,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -19554,7 +19564,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -19563,7 +19573,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
